--- a/example_output/csv_data/VMHS_wind_example.xlsx
+++ b/example_output/csv_data/VMHS_wind_example.xlsx
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01681129768635403</v>
+        <v>0.02415699571945619</v>
       </c>
       <c r="D2">
-        <v>0.01362907006850905</v>
+        <v>0.01958796149822216</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>2926</v>
       </c>
       <c r="F2">
-        <v>-3.028723658965556</v>
+        <v>0.1581239780748997</v>
       </c>
       <c r="G2">
-        <v>0.01681129768635403</v>
+        <v>0.02415699571945619</v>
       </c>
       <c r="H2">
-        <v>0.01681129768635403</v>
+        <v>0.02415699571945619</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -500,25 +500,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.07840519253630672</v>
+        <v>0.1072620997153922</v>
       </c>
       <c r="D3">
-        <v>0.05149351891143638</v>
+        <v>0.06482294406479615</v>
       </c>
       <c r="E3">
-        <v>1054</v>
+        <v>22414</v>
       </c>
       <c r="F3">
-        <v>-2.305704856189837</v>
+        <v>0.03448638867684106</v>
       </c>
       <c r="G3">
-        <v>0.07840519253630672</v>
+        <v>0.1072620997153922</v>
       </c>
       <c r="H3">
-        <v>0.07840519253630672</v>
+        <v>0.1072620997153922</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -538,25 +538,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1911726612010047</v>
+        <v>0.2544164183948279</v>
       </c>
       <c r="D4">
-        <v>0.08365797672748147</v>
+        <v>0.09029718256706523</v>
       </c>
       <c r="E4">
-        <v>1659</v>
+        <v>39413</v>
       </c>
       <c r="F4">
-        <v>-1.63765160150161</v>
+        <v>0.05466429584715277</v>
       </c>
       <c r="G4">
-        <v>0.1911726612010047</v>
+        <v>0.2544164183948279</v>
       </c>
       <c r="H4">
-        <v>0.1911726612010047</v>
+        <v>0.2544164183948279</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -576,25 +576,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3277876054440787</v>
+        <v>0.4362358319108161</v>
       </c>
       <c r="D5">
-        <v>0.08530629060782308</v>
+        <v>0.09753136236749038</v>
       </c>
       <c r="E5">
-        <v>2152</v>
+        <v>51628</v>
       </c>
       <c r="F5">
-        <v>-1.017640338060272</v>
+        <v>0.2045718622169138</v>
       </c>
       <c r="G5">
-        <v>0.3277876054440787</v>
+        <v>0.4362358319108161</v>
       </c>
       <c r="H5">
-        <v>0.3277876054440787</v>
+        <v>0.4362358319108161</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -614,25 +614,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4883059336302623</v>
+        <v>0.7043595531413073</v>
       </c>
       <c r="D6">
-        <v>0.1028749531755435</v>
+        <v>0.1290034142807966</v>
       </c>
       <c r="E6">
-        <v>2478</v>
+        <v>58564</v>
       </c>
       <c r="F6">
-        <v>-0.4387475090252211</v>
+        <v>0.4701232504172023</v>
       </c>
       <c r="G6">
-        <v>0.4883059336302623</v>
+        <v>0.7043595531413073</v>
       </c>
       <c r="H6">
-        <v>0.4883059336302623</v>
+        <v>0.7043595531413073</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -652,25 +652,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7205175131543998</v>
+        <v>1.019278411789883</v>
       </c>
       <c r="D7">
-        <v>0.1235933757486832</v>
+        <v>0.1652373589382355</v>
       </c>
       <c r="E7">
-        <v>2680</v>
+        <v>56747</v>
       </c>
       <c r="F7">
-        <v>0.105950442444148</v>
+        <v>0.837232623079097</v>
       </c>
       <c r="G7">
-        <v>0.7205175131543998</v>
+        <v>1.019278411789883</v>
       </c>
       <c r="H7">
-        <v>0.7205175131543998</v>
+        <v>1.019278411789883</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -690,25 +690,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9733968163742248</v>
+        <v>1.399108647458807</v>
       </c>
       <c r="D8">
-        <v>0.1557682214626782</v>
+        <v>0.2143682945517394</v>
       </c>
       <c r="E8">
-        <v>2462</v>
+        <v>48040</v>
       </c>
       <c r="F8">
-        <v>0.6233770731884363</v>
+        <v>1.291814142833678</v>
       </c>
       <c r="G8">
-        <v>0.9733968163742248</v>
+        <v>1.399108647458807</v>
       </c>
       <c r="H8">
-        <v>0.9733968163742248</v>
+        <v>1.399108647458807</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -728,25 +728,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.283796644411373</v>
+        <v>1.874399706988106</v>
       </c>
       <c r="D9">
-        <v>0.1879981572557805</v>
+        <v>0.3142778713935719</v>
       </c>
       <c r="E9">
-        <v>2331</v>
+        <v>34504</v>
       </c>
       <c r="F9">
-        <v>1.120455940048246</v>
+        <v>1.819781972312022</v>
       </c>
       <c r="G9">
-        <v>1.283796644411373</v>
+        <v>1.874399706988106</v>
       </c>
       <c r="H9">
-        <v>1.283796644411373</v>
+        <v>1.874399706988106</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -766,25 +766,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.636929759998122</v>
+        <v>2.42901567517771</v>
       </c>
       <c r="D10">
-        <v>0.245342449747642</v>
+        <v>0.4208314754808586</v>
       </c>
       <c r="E10">
-        <v>1896</v>
+        <v>25550</v>
       </c>
       <c r="F10">
-        <v>1.604110599864182</v>
+        <v>2.407050274145207</v>
       </c>
       <c r="G10">
-        <v>1.636929759998122</v>
+        <v>2.42901567517771</v>
       </c>
       <c r="H10">
-        <v>1.636929759998122</v>
+        <v>2.42901567517771</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -804,25 +804,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.072647858128437</v>
+        <v>3.036762587765959</v>
       </c>
       <c r="D11">
-        <v>0.3349039066801486</v>
+        <v>0.5365120301080047</v>
       </c>
       <c r="E11">
-        <v>1478</v>
+        <v>17463</v>
       </c>
       <c r="F11">
-        <v>2.081264609476845</v>
+        <v>3.039533210964315</v>
       </c>
       <c r="G11">
-        <v>2.072647858128437</v>
+        <v>3.036762587765959</v>
       </c>
       <c r="H11">
-        <v>2.072647858128437</v>
+        <v>3.036762587765959</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -842,25 +842,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.560978761491892</v>
+        <v>3.687034862786286</v>
       </c>
       <c r="D12">
-        <v>0.4305842147568744</v>
+        <v>0.6388817342813349</v>
       </c>
       <c r="E12">
-        <v>1124</v>
+        <v>11024</v>
       </c>
       <c r="F12">
-        <v>2.558841525726841</v>
+        <v>3.703144945400421</v>
       </c>
       <c r="G12">
-        <v>2.560978761491892</v>
+        <v>3.687034862786286</v>
       </c>
       <c r="H12">
-        <v>2.560978761491892</v>
+        <v>3.687034862786286</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -880,31 +880,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.078359870721842</v>
+        <v>4.342696771309463</v>
       </c>
       <c r="D13">
-        <v>0.5359204906760001</v>
+        <v>0.7280089824476846</v>
       </c>
       <c r="E13">
-        <v>925</v>
+        <v>6059</v>
       </c>
       <c r="F13">
-        <v>3.04376490545477</v>
+        <v>4.383799640084606</v>
       </c>
       <c r="G13">
-        <v>3.078359870721842</v>
+        <v>4.383799640084606</v>
       </c>
       <c r="H13">
-        <v>3.078359870721842</v>
+        <v>4.383799640084606</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -918,31 +918,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.504800551447827</v>
+        <v>5.053320000277439</v>
       </c>
       <c r="D14">
-        <v>0.6047735693354384</v>
+        <v>0.8119598881094339</v>
       </c>
       <c r="E14">
-        <v>676</v>
+        <v>2819</v>
       </c>
       <c r="F14">
-        <v>3.542958305501236</v>
+        <v>5.06741145764795</v>
       </c>
       <c r="G14">
-        <v>3.504800551447827</v>
+        <v>5.06741145764795</v>
       </c>
       <c r="H14">
-        <v>3.504800551447827</v>
+        <v>5.06741145764795</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -956,25 +956,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.05356830978055</v>
+        <v>5.738163666282016</v>
       </c>
       <c r="D15">
-        <v>0.6269389937527204</v>
+        <v>0.8905476079931431</v>
       </c>
       <c r="E15">
-        <v>350</v>
+        <v>1203</v>
       </c>
       <c r="F15">
-        <v>4.06334528270684</v>
+        <v>5.739894560721527</v>
       </c>
       <c r="G15">
-        <v>4.06334528270684</v>
+        <v>5.739894560721527</v>
       </c>
       <c r="H15">
-        <v>4.06334528270684</v>
+        <v>5.739894560721527</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -994,25 +994,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.669730360019805</v>
+        <v>6.447170180122049</v>
       </c>
       <c r="D16">
-        <v>0.831054857680757</v>
+        <v>0.9541769342152114</v>
       </c>
       <c r="E16">
-        <v>172</v>
+        <v>524</v>
       </c>
       <c r="F16">
-        <v>4.611849393912186</v>
+        <v>6.38716311193642</v>
       </c>
       <c r="G16">
-        <v>4.611849393912186</v>
+        <v>6.38716311193642</v>
       </c>
       <c r="H16">
-        <v>4.611849393912186</v>
+        <v>6.38716311193642</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,25 +1032,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>5.14014181933184</v>
+        <v>7.044328599699865</v>
       </c>
       <c r="D17">
-        <v>0.7931663921402236</v>
+        <v>1.07745504176654</v>
       </c>
       <c r="E17">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="F17">
-        <v>5.195394195957878</v>
+        <v>6.995131273923704</v>
       </c>
       <c r="G17">
-        <v>5.195394195957878</v>
+        <v>6.995131273923704</v>
       </c>
       <c r="H17">
-        <v>5.195394195957878</v>
+        <v>6.995131273923704</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1070,25 +1070,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>5.91132824530119</v>
+        <v>7.64386332530874</v>
       </c>
       <c r="D18">
-        <v>0.9767366298001647</v>
+        <v>1.013889187627962</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>5.820903245684518</v>
+        <v>7.54971320931446</v>
       </c>
       <c r="G18">
-        <v>5.820903245684518</v>
+        <v>7.54971320931446</v>
       </c>
       <c r="H18">
-        <v>5.820903245684518</v>
+        <v>7.54971320931446</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1108,25 +1108,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>6.266851425057881</v>
+        <v>7.828426404457028</v>
       </c>
       <c r="D19">
-        <v>0.9419092152876253</v>
+        <v>1.146940882091805</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>6.49530009993271</v>
+        <v>8.036823080739767</v>
       </c>
       <c r="G19">
-        <v>6.49530009993271</v>
+        <v>8.036823080739767</v>
       </c>
       <c r="H19">
-        <v>6.49530009993271</v>
+        <v>8.036823080739767</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1146,25 +1146,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="C20">
-        <v>7.458674128020341</v>
+        <v>8.448819493929314</v>
       </c>
       <c r="D20">
-        <v>0.277235202670945</v>
+        <v>1.454320836988868</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>7.225508315543054</v>
+        <v>8.442375050830705</v>
       </c>
       <c r="G20">
-        <v>7.225508315543054</v>
+        <v>8.442375050830705</v>
       </c>
       <c r="H20">
-        <v>7.225508315543054</v>
+        <v>8.442375050830705</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1184,25 +1184,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="C21">
-        <v>7.9405</v>
+        <v>8.8047215308038</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.6411032775614235</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>8.018451449356153</v>
+        <v>8.75228328221835</v>
       </c>
       <c r="G21">
-        <v>8.018451449356153</v>
+        <v>8.75228328221835</v>
       </c>
       <c r="H21">
-        <v>8.018451449356153</v>
+        <v>8.75228328221835</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.02400760672754575</v>
+        <v>0.02204156877696777</v>
       </c>
       <c r="D2">
-        <v>0.01752175494407749</v>
+        <v>0.01701541443265052</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="F2">
-        <v>2.148419454047869</v>
+        <v>6.176947127234621</v>
       </c>
       <c r="G2">
-        <v>0.02400760672754575</v>
+        <v>0.02204156877696777</v>
       </c>
       <c r="H2">
-        <v>0.02400760672754575</v>
+        <v>0.02204156877696777</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1308,25 +1308,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.06669193110860863</v>
+        <v>0.1017407689219408</v>
       </c>
       <c r="D3">
-        <v>0.0482998175732939</v>
+        <v>0.06256498084739358</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>2037</v>
       </c>
       <c r="F3">
-        <v>1.821232053347429</v>
+        <v>4.757495538975212</v>
       </c>
       <c r="G3">
-        <v>0.06669193110860863</v>
+        <v>0.1017407689219408</v>
       </c>
       <c r="H3">
-        <v>0.06669193110860863</v>
+        <v>0.1017407689219408</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1346,25 +1346,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.2065818090651874</v>
+        <v>0.254746836474306</v>
       </c>
       <c r="D4">
-        <v>0.06436193998210514</v>
+        <v>0.08940297142812283</v>
       </c>
       <c r="E4">
-        <v>166</v>
+        <v>3800</v>
       </c>
       <c r="F4">
-        <v>1.586843666815065</v>
+        <v>3.67367544644878</v>
       </c>
       <c r="G4">
-        <v>0.2065818090651874</v>
+        <v>0.254746836474306</v>
       </c>
       <c r="H4">
-        <v>0.2065818090651874</v>
+        <v>0.254746836474306</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1384,25 +1384,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3377105161067175</v>
+        <v>0.4406239780717088</v>
       </c>
       <c r="D5">
-        <v>0.07465376606946943</v>
+        <v>0.09725005311784145</v>
       </c>
       <c r="E5">
-        <v>229</v>
+        <v>5364</v>
       </c>
       <c r="F5">
-        <v>1.441425757909681</v>
+        <v>2.896863285952866</v>
       </c>
       <c r="G5">
-        <v>0.3377105161067175</v>
+        <v>0.4406239780717088</v>
       </c>
       <c r="H5">
-        <v>0.3377105161067175</v>
+        <v>0.4406239780717088</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1422,25 +1422,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4957004266784837</v>
+        <v>0.7179118643555522</v>
       </c>
       <c r="D6">
-        <v>0.08822715788880482</v>
+        <v>0.1280370542547828</v>
       </c>
       <c r="E6">
-        <v>260</v>
+        <v>7010</v>
       </c>
       <c r="F6">
-        <v>1.381149790090184</v>
+        <v>2.398435493785017</v>
       </c>
       <c r="G6">
-        <v>0.4957004266784837</v>
+        <v>0.7179118643555522</v>
       </c>
       <c r="H6">
-        <v>0.4957004266784837</v>
+        <v>0.7179118643555522</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1460,25 +1460,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7262137694845917</v>
+        <v>1.05333752797183</v>
       </c>
       <c r="D7">
-        <v>0.1267441604078233</v>
+        <v>0.1632014221508521</v>
       </c>
       <c r="E7">
-        <v>255</v>
+        <v>7889</v>
       </c>
       <c r="F7">
-        <v>1.402187226815479</v>
+        <v>2.149768506242773</v>
       </c>
       <c r="G7">
-        <v>0.7262137694845917</v>
+        <v>1.05333752797183</v>
       </c>
       <c r="H7">
-        <v>0.7262137694845917</v>
+        <v>1.05333752797183</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1498,25 +1498,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.002026508601814</v>
+        <v>1.462831966319444</v>
       </c>
       <c r="D8">
-        <v>0.1394980635093322</v>
+        <v>0.22539285354983</v>
       </c>
       <c r="E8">
-        <v>297</v>
+        <v>7050</v>
       </c>
       <c r="F8">
-        <v>1.50070953154447</v>
+        <v>2.122238759623683</v>
       </c>
       <c r="G8">
-        <v>1.002026508601814</v>
+        <v>1.462831966319444</v>
       </c>
       <c r="H8">
-        <v>1.002026508601814</v>
+        <v>1.462831966319444</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1536,25 +1536,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.329525157897987</v>
+        <v>1.98338277567374</v>
       </c>
       <c r="D9">
-        <v>0.1968691119601465</v>
+        <v>0.3100530599572951</v>
       </c>
       <c r="E9">
-        <v>300</v>
+        <v>5508</v>
       </c>
       <c r="F9">
-        <v>1.672888167736063</v>
+        <v>2.287222690225287</v>
       </c>
       <c r="G9">
-        <v>1.329525157897987</v>
+        <v>1.98338277567374</v>
       </c>
       <c r="H9">
-        <v>1.329525157897987</v>
+        <v>1.98338277567374</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1574,25 +1574,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.724267235297295</v>
+        <v>2.5421138647514</v>
       </c>
       <c r="D10">
-        <v>0.2441424922297324</v>
+        <v>0.3947869183215175</v>
       </c>
       <c r="E10">
-        <v>268</v>
+        <v>4597</v>
       </c>
       <c r="F10">
-        <v>1.914894598849163</v>
+        <v>2.616096734345135</v>
       </c>
       <c r="G10">
-        <v>1.724267235297295</v>
+        <v>2.5421138647514</v>
       </c>
       <c r="H10">
-        <v>1.724267235297295</v>
+        <v>2.5421138647514</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1612,25 +1612,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.177505976561259</v>
+        <v>3.128387048025043</v>
       </c>
       <c r="D11">
-        <v>0.3203988739258612</v>
+        <v>0.4445406986925516</v>
       </c>
       <c r="E11">
-        <v>250</v>
+        <v>3261</v>
       </c>
       <c r="F11">
-        <v>2.222900288342673</v>
+        <v>3.080237328280763</v>
       </c>
       <c r="G11">
-        <v>2.177505976561259</v>
+        <v>3.128387048025043</v>
       </c>
       <c r="H11">
-        <v>2.177505976561259</v>
+        <v>3.128387048025043</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1650,25 +1650,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.604790118455174</v>
+        <v>3.751208978143861</v>
       </c>
       <c r="D12">
-        <v>0.3831368339156646</v>
+        <v>0.4731168147976694</v>
       </c>
       <c r="E12">
-        <v>233</v>
+        <v>2390</v>
       </c>
       <c r="F12">
-        <v>2.593076699675504</v>
+        <v>3.651020908329725</v>
       </c>
       <c r="G12">
-        <v>2.604790118455174</v>
+        <v>3.751208978143861</v>
       </c>
       <c r="H12">
-        <v>2.604790118455174</v>
+        <v>3.751208978143861</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1688,31 +1688,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.076173887984796</v>
+        <v>4.33146403617051</v>
       </c>
       <c r="D13">
-        <v>0.4626240717299493</v>
+        <v>0.4768889782754616</v>
       </c>
       <c r="E13">
-        <v>159</v>
+        <v>1303</v>
       </c>
       <c r="F13">
-        <v>3.021595296306558</v>
+        <v>4.299823910789559</v>
       </c>
       <c r="G13">
-        <v>3.076173887984796</v>
+        <v>4.299823910789559</v>
       </c>
       <c r="H13">
-        <v>3.076173887984796</v>
+        <v>4.299823910789559</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1726,31 +1726,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.545974439238296</v>
+        <v>4.962353971544334</v>
       </c>
       <c r="D14">
-        <v>0.4636077238277879</v>
+        <v>0.5294232438987326</v>
       </c>
       <c r="E14">
-        <v>134</v>
+        <v>601</v>
       </c>
       <c r="F14">
-        <v>3.504627541694737</v>
+        <v>4.998022771957807</v>
       </c>
       <c r="G14">
-        <v>3.545974439238296</v>
+        <v>4.998022771957807</v>
       </c>
       <c r="H14">
-        <v>3.545974439238296</v>
+        <v>4.998022771957807</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1764,31 +1764,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.073719529318186</v>
+        <v>5.604826460077487</v>
       </c>
       <c r="D15">
-        <v>0.4201966554616853</v>
+        <v>0.6022046114078053</v>
       </c>
       <c r="E15">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="F15">
-        <v>4.03834489929895</v>
+        <v>5.71699392813202</v>
       </c>
       <c r="G15">
-        <v>4.073719529318186</v>
+        <v>5.71699392813202</v>
       </c>
       <c r="H15">
-        <v>4.073719529318186</v>
+        <v>5.71699392813202</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1802,25 +1802,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.655047429244789</v>
+        <v>6.44282180860219</v>
       </c>
       <c r="D16">
-        <v>0.352455969095278</v>
+        <v>0.6445284829982302</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>4.618918832578101</v>
+        <v>6.428113815609734</v>
       </c>
       <c r="G16">
-        <v>4.618918832578101</v>
+        <v>6.428113815609734</v>
       </c>
       <c r="H16">
-        <v>4.618918832578101</v>
+        <v>6.428113815609734</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1840,25 +1840,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>5.014103841049119</v>
+        <v>6.988284317064982</v>
       </c>
       <c r="D17">
-        <v>0.550804246276536</v>
+        <v>0.7675741810430609</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>5.242520804991098</v>
+        <v>7.102758870688511</v>
       </c>
       <c r="G17">
-        <v>5.242520804991098</v>
+        <v>7.102758870688511</v>
       </c>
       <c r="H17">
-        <v>5.242520804991098</v>
+        <v>7.102758870688511</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1878,25 +1878,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>5.71005925652265</v>
+        <v>7.756443419438279</v>
       </c>
       <c r="D18">
-        <v>0.3456161814788191</v>
+        <v>0.9900330898244606</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>5.905322279996842</v>
+        <v>7.712305529665869</v>
       </c>
       <c r="G18">
-        <v>5.905322279996842</v>
+        <v>7.712305529665869</v>
       </c>
       <c r="H18">
-        <v>5.905322279996842</v>
+        <v>7.712305529665869</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1916,25 +1916,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>6.892455696629468</v>
+        <v>8.476667196880308</v>
       </c>
       <c r="D19">
-        <v>0.791488262957828</v>
+        <v>0.5834097864185079</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>6.60349472105424</v>
+        <v>8.228130228839373</v>
       </c>
       <c r="G19">
-        <v>6.60349472105424</v>
+        <v>8.228130228839373</v>
       </c>
       <c r="H19">
-        <v>6.60349472105424</v>
+        <v>8.228130228839373</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1954,25 +1954,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="C20">
-        <v>7.484319135699653</v>
+        <v>8.476667196880308</v>
       </c>
       <c r="D20">
-        <v>0.3050464145011378</v>
+        <v>0.2924499999999997</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>7.333209591622197</v>
+        <v>8.621609404506557</v>
       </c>
       <c r="G20">
-        <v>7.333209591622197</v>
+        <v>8.621609404506557</v>
       </c>
       <c r="H20">
-        <v>7.333209591622197</v>
+        <v>8.621609404506557</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1992,25 +1992,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="C21">
-        <v>7.9405</v>
+        <v>8.857994626607086</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.48055</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>8.090638355159619</v>
+        <v>8.864119492964974</v>
       </c>
       <c r="G21">
-        <v>8.090638355159619</v>
+        <v>8.864119492964974</v>
       </c>
       <c r="H21">
-        <v>8.090638355159619</v>
+        <v>8.864119492964974</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2078,25 +2078,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01963349366537557</v>
+        <v>0.02368539450502771</v>
       </c>
       <c r="D2">
-        <v>0.01624962582906155</v>
+        <v>0.01967676583460739</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="F2">
-        <v>-7.610285926088958</v>
+        <v>-2.130143376573746</v>
       </c>
       <c r="G2">
-        <v>0.01963349366537557</v>
+        <v>0.02368539450502771</v>
       </c>
       <c r="H2">
-        <v>0.01963349366537557</v>
+        <v>0.02368539450502771</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2116,25 +2116,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.06954651388007781</v>
+        <v>0.1059274031106109</v>
       </c>
       <c r="D3">
-        <v>0.05207031964539875</v>
+        <v>0.06202377416618541</v>
       </c>
       <c r="E3">
-        <v>118</v>
+        <v>2053</v>
       </c>
       <c r="F3">
-        <v>-5.917545943101213</v>
+        <v>-1.654952754013836</v>
       </c>
       <c r="G3">
-        <v>0.06954651388007781</v>
+        <v>0.1059274031106109</v>
       </c>
       <c r="H3">
-        <v>0.06954651388007781</v>
+        <v>0.1059274031106109</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2154,25 +2154,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1953375614188477</v>
+        <v>0.2478350692630955</v>
       </c>
       <c r="D4">
-        <v>0.08642391353454171</v>
+        <v>0.08436017377704626</v>
       </c>
       <c r="E4">
-        <v>156</v>
+        <v>3802</v>
       </c>
       <c r="F4">
-        <v>-4.417259410723081</v>
+        <v>-1.139062135358025</v>
       </c>
       <c r="G4">
-        <v>0.1953375614188477</v>
+        <v>0.2478350692630955</v>
       </c>
       <c r="H4">
-        <v>0.1953375614188477</v>
+        <v>0.2478350692630955</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2192,25 +2192,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3241924485947822</v>
+        <v>0.430520159938349</v>
       </c>
       <c r="D5">
-        <v>0.07259193294678122</v>
+        <v>0.08767174781990045</v>
       </c>
       <c r="E5">
-        <v>226</v>
+        <v>5331</v>
       </c>
       <c r="F5">
-        <v>-3.092081110758427</v>
+        <v>-0.5870138830926447</v>
       </c>
       <c r="G5">
-        <v>0.3241924485947822</v>
+        <v>0.430520159938349</v>
       </c>
       <c r="H5">
-        <v>0.3241924485947822</v>
+        <v>0.430520159938349</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2230,25 +2230,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4913690713595678</v>
+        <v>0.7032410701678341</v>
       </c>
       <c r="D6">
-        <v>0.06939748188286911</v>
+        <v>0.1179005128826329</v>
       </c>
       <c r="E6">
-        <v>267</v>
+        <v>6519</v>
       </c>
       <c r="F6">
-        <v>-1.924665825011117</v>
+        <v>-0.003350359704029748</v>
       </c>
       <c r="G6">
-        <v>0.4913690713595678</v>
+        <v>0.7032410701678341</v>
       </c>
       <c r="H6">
-        <v>0.4913690713595678</v>
+        <v>0.7032410701678341</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2268,25 +2268,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7175526204321292</v>
+        <v>1.034311845441636</v>
       </c>
       <c r="D7">
-        <v>0.107690453558504</v>
+        <v>0.1543574103137225</v>
       </c>
       <c r="E7">
-        <v>264</v>
+        <v>7145</v>
       </c>
       <c r="F7">
-        <v>-0.8976683352850174</v>
+        <v>0.6073860723214878</v>
       </c>
       <c r="G7">
-        <v>0.7175526204321292</v>
+        <v>1.034311845441636</v>
       </c>
       <c r="H7">
-        <v>0.7175526204321292</v>
+        <v>1.034311845441636</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2306,25 +2306,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.999104137448107</v>
+        <v>1.436751549519358</v>
       </c>
       <c r="D8">
-        <v>0.1383336843297644</v>
+        <v>0.1997860092025999</v>
       </c>
       <c r="E8">
-        <v>270</v>
+        <v>6338</v>
       </c>
       <c r="F8">
-        <v>0.006256576616008314</v>
+        <v>1.240653050497575</v>
       </c>
       <c r="G8">
-        <v>0.999104137448107</v>
+        <v>1.436751549519358</v>
       </c>
       <c r="H8">
-        <v>0.999104137448107</v>
+        <v>1.436751549519358</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2344,25 +2344,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.339602442700777</v>
+        <v>1.972943804799796</v>
       </c>
       <c r="D9">
-        <v>0.1497481628285348</v>
+        <v>0.2937375978970569</v>
       </c>
       <c r="E9">
-        <v>356</v>
+        <v>4560</v>
       </c>
       <c r="F9">
-        <v>0.8044541288880938</v>
+        <v>1.891908212337897</v>
       </c>
       <c r="G9">
-        <v>1.339602442700777</v>
+        <v>1.972943804799796</v>
       </c>
       <c r="H9">
-        <v>1.339602442700777</v>
+        <v>1.972943804799796</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2382,25 +2382,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.700034248786406</v>
+        <v>2.567743833867091</v>
       </c>
       <c r="D10">
-        <v>0.2443131242220268</v>
+        <v>0.3758584791692354</v>
       </c>
       <c r="E10">
-        <v>216</v>
+        <v>3538</v>
       </c>
       <c r="F10">
-        <v>1.514269539727374</v>
+        <v>2.556609195356123</v>
       </c>
       <c r="G10">
-        <v>1.700034248786406</v>
+        <v>2.567743833867091</v>
       </c>
       <c r="H10">
-        <v>1.700034248786406</v>
+        <v>2.567743833867091</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2420,25 +2420,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.172531868248691</v>
+        <v>3.221395593535123</v>
       </c>
       <c r="D11">
-        <v>0.2717077926408671</v>
+        <v>0.4403131848857971</v>
       </c>
       <c r="E11">
-        <v>187</v>
+        <v>2526</v>
       </c>
       <c r="F11">
-        <v>2.15304802732998</v>
+        <v>3.23021363706592</v>
       </c>
       <c r="G11">
-        <v>2.172531868248691</v>
+        <v>3.221395593535123</v>
       </c>
       <c r="H11">
-        <v>2.172531868248691</v>
+        <v>3.221395593535123</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2458,25 +2458,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.674310797594615</v>
+        <v>3.888028328320611</v>
       </c>
       <c r="D12">
-        <v>0.3614376949694094</v>
+        <v>0.4698620934611473</v>
       </c>
       <c r="E12">
-        <v>122</v>
+        <v>1689</v>
       </c>
       <c r="F12">
-        <v>2.738134809892051</v>
+        <v>3.908179174980953</v>
       </c>
       <c r="G12">
-        <v>2.674310797594615</v>
+        <v>3.888028328320611</v>
       </c>
       <c r="H12">
-        <v>2.674310797594615</v>
+        <v>3.888028328320611</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2496,31 +2496,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.302367716124296</v>
+        <v>4.576007962315381</v>
       </c>
       <c r="D13">
-        <v>0.3971243623337035</v>
+        <v>0.5704321941764221</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>1094</v>
       </c>
       <c r="F13">
-        <v>3.286875105609717</v>
+        <v>4.585963446614891</v>
       </c>
       <c r="G13">
-        <v>3.302367716124296</v>
+        <v>4.585963446614891</v>
       </c>
       <c r="H13">
-        <v>3.302367716124296</v>
+        <v>4.585963446614891</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2534,31 +2534,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.918926118900027</v>
+        <v>5.258939704933608</v>
       </c>
       <c r="D14">
-        <v>0.4037433446132282</v>
+        <v>0.5714897403443187</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>629</v>
       </c>
       <c r="F14">
-        <v>3.816614132679121</v>
+        <v>5.2590240894814</v>
       </c>
       <c r="G14">
-        <v>3.918926118900027</v>
+        <v>5.2590240894814</v>
       </c>
       <c r="H14">
-        <v>3.918926118900027</v>
+        <v>5.2590240894814</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2572,25 +2572,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.303564869124894</v>
+        <v>5.961153077644265</v>
       </c>
       <c r="D15">
-        <v>0.4657953807537735</v>
+        <v>0.5403351337476864</v>
       </c>
       <c r="E15">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="F15">
-        <v>4.344697109296384</v>
+        <v>5.922818741094147</v>
       </c>
       <c r="G15">
-        <v>4.344697109296384</v>
+        <v>5.922818741094147</v>
       </c>
       <c r="H15">
-        <v>4.344697109296384</v>
+        <v>5.922818741094147</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2610,25 +2610,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.862771480875632</v>
+        <v>6.663251655102024</v>
       </c>
       <c r="D16">
-        <v>0.3914893594026789</v>
+        <v>0.7051499566875318</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="F16">
-        <v>4.888469253657648</v>
+        <v>6.572805038966797</v>
       </c>
       <c r="G16">
-        <v>4.888469253657648</v>
+        <v>6.572805038966797</v>
       </c>
       <c r="H16">
-        <v>4.888469253657648</v>
+        <v>6.572805038966797</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2648,25 +2648,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>5.328410235968865</v>
+        <v>7.195895061058593</v>
       </c>
       <c r="D17">
-        <v>0.3988566954278871</v>
+        <v>0.673556172443288</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>5.465275783959051</v>
+        <v>7.204440620613022</v>
       </c>
       <c r="G17">
-        <v>5.465275783959051</v>
+        <v>7.204440620613022</v>
       </c>
       <c r="H17">
-        <v>5.465275783959051</v>
+        <v>7.204440620613022</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2686,25 +2686,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>6.294197057960963</v>
+        <v>7.650294038524424</v>
       </c>
       <c r="D18">
-        <v>0.632972729699479</v>
+        <v>0.9429528608134463</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>6.092461918396719</v>
+        <v>7.813183123546484</v>
       </c>
       <c r="G18">
-        <v>6.092461918396719</v>
+        <v>7.813183123546484</v>
       </c>
       <c r="H18">
-        <v>6.092461918396719</v>
+        <v>7.813183123546484</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2724,25 +2724,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>6.715868871188596</v>
+        <v>8.245312544652265</v>
       </c>
       <c r="D19">
-        <v>0.5458428093325037</v>
+        <v>1.125826234771601</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>6.787372875166799</v>
+        <v>8.394490185280851</v>
       </c>
       <c r="G19">
-        <v>6.787372875166799</v>
+        <v>8.394490185280851</v>
       </c>
       <c r="H19">
-        <v>6.787372875166799</v>
+        <v>8.394490185280851</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2762,28 +2762,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>9.310076715795633</v>
+      </c>
+      <c r="D20">
+        <v>0.451136026493119</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>7.567353872465414</v>
+        <v>8.943819443329794</v>
       </c>
       <c r="G20">
-        <v>7.567353872465414</v>
+        <v>8.943819443329794</v>
+      </c>
+      <c r="H20">
+        <v>8.943819443329794</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2791,28 +2800,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
+      </c>
+      <c r="C21">
+        <v>9.310076715795633</v>
+      </c>
+      <c r="D21">
+        <v>0.7635499999999995</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>8.449750128488695</v>
+        <v>9.456628535206974</v>
       </c>
       <c r="G21">
-        <v>8.449750128488695</v>
+        <v>9.456628535206974</v>
+      </c>
+      <c r="H21">
+        <v>9.456628535206974</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2868,25 +2886,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.009769480063475446</v>
+        <v>0.02101316399335059</v>
       </c>
       <c r="D2">
-        <v>0.008642386041559275</v>
+        <v>0.01655567394426303</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="F2">
-        <v>4.904137897561403</v>
+        <v>4.616581228636758</v>
       </c>
       <c r="G2">
-        <v>0.009769480063475446</v>
+        <v>0.02101316399335059</v>
       </c>
       <c r="H2">
-        <v>0.009769480063475446</v>
+        <v>0.02101316399335059</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2906,25 +2924,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.07536609457615723</v>
+        <v>0.1032394737472696</v>
       </c>
       <c r="D3">
-        <v>0.0472835089663324</v>
+        <v>0.06101959958465889</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>2055</v>
       </c>
       <c r="F3">
-        <v>3.660672739683243</v>
+        <v>3.33582225514105</v>
       </c>
       <c r="G3">
-        <v>0.07536609457615723</v>
+        <v>0.1032394737472696</v>
       </c>
       <c r="H3">
-        <v>0.07536609457615723</v>
+        <v>0.1032394737472696</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2944,25 +2962,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.181758597536775</v>
+        <v>0.248669215559583</v>
       </c>
       <c r="D4">
-        <v>0.07949102861930836</v>
+        <v>0.08145921254820743</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>3667</v>
       </c>
       <c r="F4">
-        <v>2.709865076983793</v>
+        <v>2.420711879812515</v>
       </c>
       <c r="G4">
-        <v>0.181758597536775</v>
+        <v>0.248669215559583</v>
       </c>
       <c r="H4">
-        <v>0.181758597536775</v>
+        <v>0.248669215559583</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2982,25 +3000,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3208574322921546</v>
+        <v>0.4314067107738311</v>
       </c>
       <c r="D5">
-        <v>0.07407880038517961</v>
+        <v>0.08491208182095873</v>
       </c>
       <c r="E5">
-        <v>227</v>
+        <v>5331</v>
       </c>
       <c r="F5">
-        <v>2.02746047859898</v>
+        <v>1.835737944676668</v>
       </c>
       <c r="G5">
-        <v>0.3208574322921546</v>
+        <v>0.4314067107738311</v>
       </c>
       <c r="H5">
-        <v>0.3208574322921546</v>
+        <v>0.4314067107738311</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3020,25 +3038,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4918601375512759</v>
+        <v>0.6997746948414976</v>
       </c>
       <c r="D6">
-        <v>0.08258331274887791</v>
+        <v>0.1164136749209608</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>6371</v>
       </c>
       <c r="F6">
-        <v>1.589204513664733</v>
+        <v>1.545388291759028</v>
       </c>
       <c r="G6">
-        <v>0.4918601375512759</v>
+        <v>0.6997746948414976</v>
       </c>
       <c r="H6">
-        <v>0.4918601375512759</v>
+        <v>0.6997746948414976</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3058,25 +3076,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7219574382301278</v>
+        <v>1.030670748527276</v>
       </c>
       <c r="D7">
-        <v>0.09704728737836341</v>
+        <v>0.1508885074487477</v>
       </c>
       <c r="E7">
-        <v>272</v>
+        <v>6164</v>
       </c>
       <c r="F7">
-        <v>1.370842751316979</v>
+        <v>1.514150763085107</v>
       </c>
       <c r="G7">
-        <v>0.7219574382301278</v>
+        <v>1.030670748527276</v>
       </c>
       <c r="H7">
-        <v>0.7219574382301278</v>
+        <v>1.030670748527276</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3096,25 +3114,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.000418617288437</v>
+        <v>1.431467184950169</v>
       </c>
       <c r="D8">
-        <v>0.1190563358714711</v>
+        <v>0.1967230136580467</v>
       </c>
       <c r="E8">
-        <v>260</v>
+        <v>5241</v>
       </c>
       <c r="F8">
-        <v>1.348120760691647</v>
+        <v>1.706513200680423</v>
       </c>
       <c r="G8">
-        <v>1.000418617288437</v>
+        <v>1.431467184950169</v>
       </c>
       <c r="H8">
-        <v>1.000418617288437</v>
+        <v>1.431467184950169</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3134,25 +3152,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.293452695036827</v>
+        <v>1.955720730853707</v>
       </c>
       <c r="D9">
-        <v>0.1632443053533979</v>
+        <v>0.2811822980451494</v>
       </c>
       <c r="E9">
-        <v>254</v>
+        <v>4104</v>
       </c>
       <c r="F9">
-        <v>1.496784110924664</v>
+        <v>2.086963446570497</v>
       </c>
       <c r="G9">
-        <v>1.293452695036827</v>
+        <v>1.955720730853707</v>
       </c>
       <c r="H9">
-        <v>1.293452695036827</v>
+        <v>1.955720730853707</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3172,25 +3190,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.748172938562432</v>
+        <v>2.593996193095551</v>
       </c>
       <c r="D10">
-        <v>0.2021031921232196</v>
+        <v>0.384709354765185</v>
       </c>
       <c r="E10">
-        <v>209</v>
+        <v>3074</v>
       </c>
       <c r="F10">
-        <v>1.792578371151962</v>
+        <v>2.619989342780833</v>
       </c>
       <c r="G10">
-        <v>1.748172938562432</v>
+        <v>2.593996193095551</v>
       </c>
       <c r="H10">
-        <v>1.748172938562432</v>
+        <v>2.593996193095551</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3199,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3210,25 +3228,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.195160070143985</v>
+        <v>3.313019619911159</v>
       </c>
       <c r="D11">
-        <v>0.3378509719786815</v>
+        <v>0.4895097271061022</v>
       </c>
       <c r="E11">
-        <v>209</v>
+        <v>2131</v>
       </c>
       <c r="F11">
-        <v>2.211249110509463</v>
+        <v>3.270078731336962</v>
       </c>
       <c r="G11">
-        <v>2.195160070143985</v>
+        <v>3.313019619911159</v>
       </c>
       <c r="H11">
-        <v>2.195160070143985</v>
+        <v>3.313019619911159</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3248,25 +3266,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.759043212697338</v>
+        <v>4.021437565706361</v>
       </c>
       <c r="D12">
-        <v>0.3761669834410675</v>
+        <v>0.5513260900141165</v>
       </c>
       <c r="E12">
-        <v>128</v>
+        <v>1432</v>
       </c>
       <c r="F12">
-        <v>2.728541898133102</v>
+        <v>4.001719454264389</v>
       </c>
       <c r="G12">
-        <v>2.759043212697338</v>
+        <v>4.021437565706361</v>
       </c>
       <c r="H12">
-        <v>2.759043212697338</v>
+        <v>4.021437565706361</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3286,31 +3304,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.362320603160083</v>
+        <v>4.762909030197506</v>
       </c>
       <c r="D13">
-        <v>0.4447932862282479</v>
+        <v>0.6083925644406849</v>
       </c>
       <c r="E13">
-        <v>115</v>
+        <v>793</v>
       </c>
       <c r="F13">
-        <v>3.320202303158808</v>
+        <v>4.779399353588641</v>
       </c>
       <c r="G13">
-        <v>3.362320603160083</v>
+        <v>4.779399353588641</v>
       </c>
       <c r="H13">
-        <v>3.362320603160083</v>
+        <v>4.779399353588641</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3324,31 +3342,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.876558689646363</v>
+        <v>5.534989097788558</v>
       </c>
       <c r="D14">
-        <v>0.5895412165299415</v>
+        <v>0.6663399941493057</v>
       </c>
       <c r="E14">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="F14">
-        <v>3.961975894722499</v>
+        <v>5.567606271335219</v>
       </c>
       <c r="G14">
-        <v>3.876558689646363</v>
+        <v>5.567606271335219</v>
       </c>
       <c r="H14">
-        <v>3.876558689646363</v>
+        <v>5.567606271335219</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3362,25 +3380,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.55883156256612</v>
+        <v>6.25448463007683</v>
       </c>
       <c r="D15">
-        <v>0.4666703558534609</v>
+        <v>0.8081411131594248</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="F15">
-        <v>4.629608241960117</v>
+        <v>6.33082804952965</v>
       </c>
       <c r="G15">
-        <v>4.629608241960117</v>
+        <v>6.33082804952965</v>
       </c>
       <c r="H15">
-        <v>4.629608241960117</v>
+        <v>6.33082804952965</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3400,25 +3418,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>5.427197933556505</v>
+        <v>7.083505323439167</v>
       </c>
       <c r="D16">
-        <v>0.8550148067502619</v>
+        <v>0.8603498493240498</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F16">
-        <v>5.298844914007574</v>
+        <v>7.033552530197447</v>
       </c>
       <c r="G16">
-        <v>5.298844914007574</v>
+        <v>7.033552530197447</v>
       </c>
       <c r="H16">
-        <v>5.298844914007574</v>
+        <v>7.033552530197447</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3438,25 +3456,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>6.017395573200669</v>
+        <v>7.841324446542968</v>
       </c>
       <c r="D17">
-        <v>0.5478291881014898</v>
+        <v>0.7457316065501962</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>5.945431480000817</v>
+        <v>7.640267555364133</v>
       </c>
       <c r="G17">
-        <v>5.945431480000817</v>
+        <v>7.640267555364133</v>
       </c>
       <c r="H17">
-        <v>5.945431480000817</v>
+        <v>7.640267555364133</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3476,25 +3494,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>6.388812328112804</v>
+        <v>7.883274749170493</v>
       </c>
       <c r="D18">
-        <v>1.464673105359053</v>
+        <v>0.7253205050467844</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>6.545113509075765</v>
+        <v>8.11546096705521</v>
       </c>
       <c r="G18">
-        <v>6.545113509075765</v>
+        <v>8.11546096705521</v>
       </c>
       <c r="H18">
-        <v>6.545113509075765</v>
+        <v>8.11546096705521</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3514,25 +3532,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>7.129283948896972</v>
+        <v>8.493582206780207</v>
       </c>
       <c r="D19">
-        <v>0.4585791028819348</v>
+        <v>0.5048227235596888</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>7.073636570368343</v>
+        <v>8.423620607296211</v>
       </c>
       <c r="G19">
-        <v>7.073636570368343</v>
+        <v>8.423620607296211</v>
       </c>
       <c r="H19">
-        <v>7.073636570368343</v>
+        <v>8.423620607296211</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3552,25 +3570,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
-      </c>
-      <c r="C20">
-        <v>7.3552</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>7.506746233014489</v>
+        <v>8.529234318112625</v>
       </c>
       <c r="G20">
-        <v>7.506746233014489</v>
+        <v>8.529234318112625</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3587,16 +3599,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.820188066150116</v>
+        <v>8.396789941529999</v>
       </c>
       <c r="G21">
-        <v>7.820188066150116</v>
+        <v>8.396789941529999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3664,25 +3676,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.02237286482812829</v>
+        <v>0.02133498407808557</v>
       </c>
       <c r="D2">
-        <v>0.01669487314711148</v>
+        <v>0.01649998530338892</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="F2">
-        <v>0.1278984883544798</v>
+        <v>-1.740586982189897</v>
       </c>
       <c r="G2">
-        <v>0.02237286482812829</v>
+        <v>0.02133498407808557</v>
       </c>
       <c r="H2">
-        <v>0.02237286482812829</v>
+        <v>0.02133498407808557</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3702,25 +3714,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.07355424796700942</v>
+        <v>0.1029438274342657</v>
       </c>
       <c r="D3">
-        <v>0.04533653993774257</v>
+        <v>0.0623644334608035</v>
       </c>
       <c r="E3">
-        <v>108</v>
+        <v>2094</v>
       </c>
       <c r="F3">
-        <v>-0.06236513562947482</v>
+        <v>-1.602671873415958</v>
       </c>
       <c r="G3">
-        <v>0.07355424796700942</v>
+        <v>0.1029438274342657</v>
       </c>
       <c r="H3">
-        <v>0.07355424796700942</v>
+        <v>0.1029438274342657</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3740,25 +3752,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1763876839621003</v>
+        <v>0.24958547335376</v>
       </c>
       <c r="D4">
-        <v>0.08583555929924394</v>
+        <v>0.08356416058726367</v>
       </c>
       <c r="E4">
-        <v>184</v>
+        <v>3658</v>
       </c>
       <c r="F4">
-        <v>-0.1197733446027601</v>
+        <v>-1.302810026032056</v>
       </c>
       <c r="G4">
-        <v>0.1763876839621003</v>
+        <v>0.24958547335376</v>
       </c>
       <c r="H4">
-        <v>0.1763876839621003</v>
+        <v>0.24958547335376</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3778,25 +3790,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3228722356336067</v>
+        <v>0.4320335689828282</v>
       </c>
       <c r="D5">
-        <v>0.07545406387304798</v>
+        <v>0.0873304398645386</v>
       </c>
       <c r="E5">
-        <v>208</v>
+        <v>4818</v>
       </c>
       <c r="F5">
-        <v>-0.05541665444039734</v>
+        <v>-0.8623960831265483</v>
       </c>
       <c r="G5">
-        <v>0.3228722356336067</v>
+        <v>0.4320335689828282</v>
       </c>
       <c r="H5">
-        <v>0.3228722356336067</v>
+        <v>0.4320335689828282</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3816,25 +3828,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4862364401978591</v>
+        <v>0.7061218947538372</v>
       </c>
       <c r="D6">
-        <v>0.09699697274740494</v>
+        <v>0.118690925874521</v>
       </c>
       <c r="E6">
-        <v>227</v>
+        <v>5591</v>
       </c>
       <c r="F6">
-        <v>0.1196144189825918</v>
+        <v>-0.302824687787792</v>
       </c>
       <c r="G6">
-        <v>0.4862364401978591</v>
+        <v>0.7061218947538372</v>
       </c>
       <c r="H6">
-        <v>0.4862364401978591</v>
+        <v>0.7061218947538372</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3854,25 +3866,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7278879197702169</v>
+        <v>1.048648104205665</v>
       </c>
       <c r="D7">
-        <v>0.1070782924059675</v>
+        <v>0.1591905185866663</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>5423</v>
       </c>
       <c r="F7">
-        <v>0.3942293597911868</v>
+        <v>0.3545095168958552</v>
       </c>
       <c r="G7">
-        <v>0.7278879197702169</v>
+        <v>1.048648104205665</v>
       </c>
       <c r="H7">
-        <v>0.7278879197702169</v>
+        <v>1.048648104205665</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3892,25 +3904,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>1.005307958038449</v>
+        <v>1.468421432837073</v>
       </c>
       <c r="D8">
-        <v>0.1522438062355731</v>
+        <v>0.195784358930824</v>
       </c>
       <c r="E8">
-        <v>241</v>
+        <v>4731</v>
       </c>
       <c r="F8">
-        <v>0.7573376521103654</v>
+        <v>1.088211887836037</v>
       </c>
       <c r="G8">
-        <v>1.005307958038449</v>
+        <v>1.468421432837073</v>
       </c>
       <c r="H8">
-        <v>1.005307958038449</v>
+        <v>1.468421432837073</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3930,25 +3942,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.334679371236996</v>
+        <v>2.021565229624113</v>
       </c>
       <c r="D9">
-        <v>0.1892292143133462</v>
+        <v>0.2882898604056979</v>
       </c>
       <c r="E9">
-        <v>215</v>
+        <v>3485</v>
       </c>
       <c r="F9">
-        <v>1.197848780065107</v>
+        <v>1.876887781944396</v>
       </c>
       <c r="G9">
-        <v>1.334679371236996</v>
+        <v>2.021565229624113</v>
       </c>
       <c r="H9">
-        <v>1.334679371236996</v>
+        <v>2.021565229624113</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3968,25 +3980,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.704292266231853</v>
+        <v>2.711447020648476</v>
       </c>
       <c r="D10">
-        <v>0.2850508523376556</v>
+        <v>0.3776622472133216</v>
       </c>
       <c r="E10">
-        <v>183</v>
+        <v>2697</v>
       </c>
       <c r="F10">
-        <v>1.70467222778039</v>
+        <v>2.699142556132573</v>
       </c>
       <c r="G10">
-        <v>1.704292266231853</v>
+        <v>2.711447020648476</v>
       </c>
       <c r="H10">
-        <v>1.704292266231853</v>
+        <v>2.711447020648476</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3995,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4006,25 +4018,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.240612540293799</v>
+        <v>3.498993755593861</v>
       </c>
       <c r="D11">
-        <v>0.2949495129022971</v>
+        <v>0.5121930576402089</v>
       </c>
       <c r="E11">
-        <v>142</v>
+        <v>1800</v>
       </c>
       <c r="F11">
-        <v>2.266717479381193</v>
+        <v>3.533581567312215</v>
       </c>
       <c r="G11">
-        <v>2.240612540293799</v>
+        <v>3.498993755593861</v>
       </c>
       <c r="H11">
-        <v>2.240612540293799</v>
+        <v>3.498993755593861</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4044,25 +4056,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.901723738978436</v>
+        <v>4.376515304619129</v>
       </c>
       <c r="D12">
-        <v>0.4132919007862013</v>
+        <v>0.6022431621276311</v>
       </c>
       <c r="E12">
-        <v>151</v>
+        <v>1054</v>
       </c>
       <c r="F12">
-        <v>2.872894018992497</v>
+        <v>4.358810172394962</v>
       </c>
       <c r="G12">
-        <v>2.901723738978436</v>
+        <v>4.376515304619129</v>
       </c>
       <c r="H12">
-        <v>2.901723738978436</v>
+        <v>4.376515304619129</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4082,31 +4094,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.562012914945991</v>
+        <v>5.164859005079209</v>
       </c>
       <c r="D13">
-        <v>0.4517252355968049</v>
+        <v>0.6570519688310568</v>
       </c>
       <c r="E13">
-        <v>157</v>
+        <v>611</v>
       </c>
       <c r="F13">
-        <v>3.512111330739276</v>
+        <v>5.153433728292458</v>
       </c>
       <c r="G13">
-        <v>3.562012914945991</v>
+        <v>5.153433728292458</v>
       </c>
       <c r="H13">
-        <v>3.562012914945991</v>
+        <v>5.153433728292458</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4120,31 +4132,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>4.157532727936083</v>
+        <v>5.906118286988586</v>
       </c>
       <c r="D14">
-        <v>0.640080200701643</v>
+        <v>0.6988853274065678</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="F14">
-        <v>4.173278898746513</v>
+        <v>5.896057591916343</v>
       </c>
       <c r="G14">
-        <v>4.157532727936083</v>
+        <v>5.896057591916343</v>
       </c>
       <c r="H14">
-        <v>4.157532727936083</v>
+        <v>5.896057591916343</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4158,25 +4170,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.746353516669402</v>
+        <v>6.578212324781243</v>
       </c>
       <c r="D15">
-        <v>0.6338758477052111</v>
+        <v>0.7867523040688571</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F15">
-        <v>4.845306207139183</v>
+        <v>6.565287120178267</v>
       </c>
       <c r="G15">
-        <v>4.845306207139183</v>
+        <v>6.565287120178267</v>
       </c>
       <c r="H15">
-        <v>4.845306207139183</v>
+        <v>6.565287120178267</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4196,25 +4208,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>5.525179915305926</v>
+        <v>7.04257717415215</v>
       </c>
       <c r="D16">
-        <v>0.6586167552340283</v>
+        <v>0.5924099708910301</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>5.517102740042266</v>
+        <v>7.13972766998986</v>
       </c>
       <c r="G16">
-        <v>5.517102740042266</v>
+        <v>7.13972766998986</v>
       </c>
       <c r="H16">
-        <v>5.517102740042266</v>
+        <v>7.13972766998986</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4234,25 +4246,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>6.281514718373495</v>
+        <v>7.693588984460905</v>
       </c>
       <c r="D17">
-        <v>0.1168080319435724</v>
+        <v>0.6006146812823516</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>6.177577981580747</v>
+        <v>7.597984598262777</v>
       </c>
       <c r="G17">
-        <v>6.177577981580747</v>
+        <v>7.597984598262777</v>
       </c>
       <c r="H17">
-        <v>6.177577981580747</v>
+        <v>7.597984598262777</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4272,25 +4284,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>6.7657</v>
+        <v>7.890376410064352</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1.207560872948026</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>6.815641415879595</v>
+        <v>7.918663261908655</v>
       </c>
       <c r="G18">
-        <v>6.815641415879595</v>
+        <v>7.918663261908655</v>
       </c>
       <c r="H18">
-        <v>6.815641415879595</v>
+        <v>7.918663261908655</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4310,16 +4322,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.420202527063795</v>
+        <v>8.080369017839139</v>
       </c>
       <c r="G19">
-        <v>7.420202527063795</v>
+        <v>8.080369017839139</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4339,16 +4351,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.980170799258324</v>
+        <v>8.061707222965872</v>
       </c>
       <c r="G20">
-        <v>7.980170799258324</v>
+        <v>8.061707222965872</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4368,16 +4380,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8.484455716588158</v>
+        <v>7.841283234200496</v>
       </c>
       <c r="G21">
-        <v>8.484455716588158</v>
+        <v>7.841283234200496</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4445,25 +4457,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01971079754880813</v>
+        <v>0.02143930903790269</v>
       </c>
       <c r="D2">
-        <v>0.01422774290629395</v>
+        <v>0.01704105838892573</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="F2">
-        <v>-16.65498741598611</v>
+        <v>-21.04474866198467</v>
       </c>
       <c r="G2">
-        <v>0.01971079754880813</v>
+        <v>0.02143930903790269</v>
       </c>
       <c r="H2">
-        <v>0.01971079754880813</v>
+        <v>0.02143930903790269</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4483,25 +4495,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.08177247317946053</v>
+        <v>0.1084883182517508</v>
       </c>
       <c r="D3">
-        <v>0.05412386868201666</v>
+        <v>0.06419324950513175</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>1785</v>
       </c>
       <c r="F3">
-        <v>-12.63305404892216</v>
+        <v>-15.61708732906064</v>
       </c>
       <c r="G3">
-        <v>0.08177247317946053</v>
+        <v>0.1084883182517508</v>
       </c>
       <c r="H3">
-        <v>0.08177247317946053</v>
+        <v>0.1084883182517508</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4521,25 +4533,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.2055306791708741</v>
+        <v>0.2588017870180797</v>
       </c>
       <c r="D4">
-        <v>0.06854956532953385</v>
+        <v>0.08520520989950973</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>3195</v>
       </c>
       <c r="F4">
-        <v>-9.226120865800558</v>
+        <v>-11.07753181188298</v>
       </c>
       <c r="G4">
-        <v>0.2055306791708741</v>
+        <v>0.2588017870180797</v>
       </c>
       <c r="H4">
-        <v>0.2055306791708741</v>
+        <v>0.2588017870180797</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4559,25 +4571,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3341916263779078</v>
+        <v>0.4390460459772719</v>
       </c>
       <c r="D5">
-        <v>0.06451292048109432</v>
+        <v>0.09605087712973265</v>
       </c>
       <c r="E5">
-        <v>180</v>
+        <v>3700</v>
       </c>
       <c r="F5">
-        <v>-6.376472015954571</v>
+        <v>-7.335056943732405</v>
       </c>
       <c r="G5">
-        <v>0.3341916263779078</v>
+        <v>0.4390460459772719</v>
       </c>
       <c r="H5">
-        <v>0.3341916263779078</v>
+        <v>0.4390460459772719</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4597,25 +4609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4899081629748968</v>
+        <v>0.7200111816107264</v>
       </c>
       <c r="D6">
-        <v>0.1064573897132592</v>
+        <v>0.1302154414091602</v>
       </c>
       <c r="E6">
-        <v>171</v>
+        <v>3768</v>
       </c>
       <c r="F6">
-        <v>-4.026391648717449</v>
+        <v>-4.298637557889654</v>
       </c>
       <c r="G6">
-        <v>0.4899081629748968</v>
+        <v>0.7200111816107264</v>
       </c>
       <c r="H6">
-        <v>0.4899081629748968</v>
+        <v>0.7200111816107264</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4635,25 +4647,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7488727121944959</v>
+        <v>1.049195557105477</v>
       </c>
       <c r="D7">
-        <v>0.1042897263079487</v>
+        <v>0.173735020672478</v>
       </c>
       <c r="E7">
-        <v>174</v>
+        <v>3124</v>
       </c>
       <c r="F7">
-        <v>-2.118163913422444</v>
+        <v>-1.877248487635445</v>
       </c>
       <c r="G7">
-        <v>0.7488727121944959</v>
+        <v>1.049195557105477</v>
       </c>
       <c r="H7">
-        <v>0.7488727121944959</v>
+        <v>1.049195557105477</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4673,25 +4685,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9995230347807448</v>
+        <v>1.465717587125466</v>
       </c>
       <c r="D8">
-        <v>0.1381828570428842</v>
+        <v>0.2348074534676796</v>
       </c>
       <c r="E8">
-        <v>171</v>
+        <v>2304</v>
       </c>
       <c r="F8">
-        <v>-0.5940729594028138</v>
+        <v>0.02013543374949123</v>
       </c>
       <c r="G8">
-        <v>0.9995230347807448</v>
+        <v>1.465717587125466</v>
       </c>
       <c r="H8">
-        <v>0.9995230347807448</v>
+        <v>1.465717587125466</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4711,25 +4723,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.329349545525195</v>
+        <v>1.993955663410671</v>
       </c>
       <c r="D9">
-        <v>0.2269778980762114</v>
+        <v>0.3535695165196956</v>
       </c>
       <c r="E9">
-        <v>117</v>
+        <v>1621</v>
       </c>
       <c r="F9">
-        <v>0.6035970640081842</v>
+        <v>1.484539372984429</v>
       </c>
       <c r="G9">
-        <v>1.329349545525195</v>
+        <v>1.993955663410671</v>
       </c>
       <c r="H9">
-        <v>1.329349545525195</v>
+        <v>1.993955663410671</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4749,25 +4761,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.760841923617342</v>
+        <v>2.635468398438652</v>
       </c>
       <c r="D10">
-        <v>0.3162191677480138</v>
+        <v>0.4932619600897947</v>
       </c>
       <c r="E10">
-        <v>76</v>
+        <v>987</v>
       </c>
       <c r="F10">
-        <v>1.532562007477303</v>
+        <v>2.606988496788638</v>
       </c>
       <c r="G10">
-        <v>1.760841923617342</v>
+        <v>2.635468398438652</v>
       </c>
       <c r="H10">
-        <v>1.760841923617342</v>
+        <v>2.635468398438652</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4776,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4787,31 +4799,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>2.220476169772107</v>
+        <v>3.406119499045739</v>
       </c>
       <c r="D11">
-        <v>0.3760163941757836</v>
+        <v>0.595692267752032</v>
       </c>
       <c r="E11">
-        <v>93</v>
+        <v>544</v>
       </c>
       <c r="F11">
-        <v>2.250537721671286</v>
+        <v>3.478507971881413</v>
       </c>
       <c r="G11">
-        <v>2.220476169772107</v>
+        <v>3.478507971881413</v>
       </c>
       <c r="H11">
-        <v>2.220476169772107</v>
+        <v>3.478507971881413</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4825,31 +4837,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.7897729350851</v>
+        <v>4.207636388143982</v>
       </c>
       <c r="D12">
-        <v>0.3394040760411303</v>
+        <v>0.7479772659869641</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F12">
-        <v>2.815240057256876</v>
+        <v>4.190122964981995</v>
       </c>
       <c r="G12">
-        <v>2.7897729350851</v>
+        <v>4.190122964981995</v>
       </c>
       <c r="H12">
-        <v>2.7897729350851</v>
+        <v>4.190122964981995</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4863,25 +4875,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>3.473555120751152</v>
+        <v>4.91709164591852</v>
       </c>
       <c r="D13">
-        <v>0.4268851364971471</v>
+        <v>0.8759183923982112</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F13">
-        <v>3.284384864900819</v>
+        <v>4.832858642809668</v>
       </c>
       <c r="G13">
-        <v>3.284384864900819</v>
+        <v>4.832858642809668</v>
       </c>
       <c r="H13">
-        <v>3.284384864900819</v>
+        <v>4.832858642809668</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4901,25 +4913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.599576186685038</v>
+        <v>5.436646827779049</v>
       </c>
       <c r="D14">
-        <v>0.6913399361701522</v>
+        <v>1.163025644565654</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>3.715687995269867</v>
+        <v>5.497740172083709</v>
       </c>
       <c r="G14">
-        <v>3.715687995269867</v>
+        <v>5.497740172083709</v>
       </c>
       <c r="H14">
-        <v>3.715687995269867</v>
+        <v>5.497740172083709</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4939,25 +4951,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>4.247273474389188</v>
+        <v>6.266289660656456</v>
       </c>
       <c r="D15">
-        <v>0.7475858076794597</v>
+        <v>0.5644868918706173</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15">
-        <v>4.166865299030768</v>
+        <v>6.275792719523388</v>
       </c>
       <c r="G15">
-        <v>4.166865299030768</v>
+        <v>6.275792719523388</v>
       </c>
       <c r="H15">
-        <v>4.166865299030768</v>
+        <v>6.275792719523388</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4977,25 +4989,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.326509078344803</v>
+        <v>7.2708</v>
       </c>
       <c r="D16">
-        <v>0.1001408133579912</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>4.695632626850241</v>
+        <v>7.258041451848008</v>
       </c>
       <c r="G16">
-        <v>4.695632626850241</v>
+        <v>7.258041451848008</v>
       </c>
       <c r="H16">
-        <v>4.695632626850241</v>
+        <v>7.258041451848008</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5015,37 +5027,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>5.684724690783187</v>
-      </c>
-      <c r="D17">
-        <v>1.4435</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5.359705829395054</v>
+        <v>8.535511535776791</v>
       </c>
       <c r="G17">
-        <v>5.359705829395054</v>
-      </c>
-      <c r="H17">
-        <v>5.359705829395054</v>
+        <v>8.535511535776791</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5053,19 +5056,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.216800757331967</v>
+        <v>10.19922813802901</v>
       </c>
       <c r="G18">
-        <v>6.216800757331967</v>
-      </c>
-      <c r="H18">
-        <v>6.216800757331967</v>
+        <v>10.19922813802901</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5074,10 +5074,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5085,37 +5085,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
-      </c>
-      <c r="C19">
-        <v>7.2708</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>7.324633261327691</v>
+        <v>12.34021642532402</v>
       </c>
       <c r="G19">
-        <v>7.324633261327691</v>
-      </c>
-      <c r="H19">
-        <v>7.324633261327691</v>
+        <v>12.34021642532402</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5123,16 +5114,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8.740919192048999</v>
+        <v>15.04950156438102</v>
       </c>
       <c r="G20">
-        <v>8.740919192048999</v>
+        <v>15.04950156438102</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5152,16 +5143,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.52337440016264</v>
+        <v>18.41810872191927</v>
       </c>
       <c r="G21">
-        <v>10.52337440016264</v>
+        <v>18.41810872191927</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5229,25 +5220,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01956946794942254</v>
+        <v>0.02391846453355939</v>
       </c>
       <c r="D2">
-        <v>0.01471604349445374</v>
+        <v>0.01871680712640129</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F2">
-        <v>-25.90189640872338</v>
+        <v>1.968087569344067</v>
       </c>
       <c r="G2">
-        <v>0.01956946794942254</v>
+        <v>0.02391846453355939</v>
       </c>
       <c r="H2">
-        <v>0.01956946794942254</v>
+        <v>0.02391846453355939</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5267,25 +5258,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.08825815424075818</v>
+        <v>0.1148083108672638</v>
       </c>
       <c r="D3">
-        <v>0.0498582287254315</v>
+        <v>0.06590981889351351</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>1792</v>
       </c>
       <c r="F3">
-        <v>-19.51792263133864</v>
+        <v>1.439342675103084</v>
       </c>
       <c r="G3">
-        <v>0.08825815424075818</v>
+        <v>0.1148083108672638</v>
       </c>
       <c r="H3">
-        <v>0.08825815424075818</v>
+        <v>0.1148083108672638</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5305,25 +5296,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1957228277211508</v>
+        <v>0.2618403168798524</v>
       </c>
       <c r="D4">
-        <v>0.08573116210499689</v>
+        <v>0.08845802918415879</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>2914</v>
       </c>
       <c r="F4">
-        <v>-14.20360385427538</v>
+        <v>1.123708300508288</v>
       </c>
       <c r="G4">
-        <v>0.1957228277211508</v>
+        <v>0.2618403168798524</v>
       </c>
       <c r="H4">
-        <v>0.1957228277211508</v>
+        <v>0.2618403168798524</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5343,25 +5334,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.33463598040352</v>
+        <v>0.4461843443341176</v>
       </c>
       <c r="D5">
-        <v>0.07661556334099144</v>
+        <v>0.09395806572503526</v>
       </c>
       <c r="E5">
-        <v>136</v>
+        <v>3414</v>
       </c>
       <c r="F5">
-        <v>-9.853469895205306</v>
+        <v>0.9976859444297421</v>
       </c>
       <c r="G5">
-        <v>0.33463598040352</v>
+        <v>0.4461843443341176</v>
       </c>
       <c r="H5">
-        <v>0.33463598040352</v>
+        <v>0.4461843443341176</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5381,25 +5372,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.5041566605930045</v>
+        <v>0.7058001519825006</v>
       </c>
       <c r="D6">
-        <v>0.07912656656004202</v>
+        <v>0.1246991601982707</v>
       </c>
       <c r="E6">
-        <v>138</v>
+        <v>3089</v>
       </c>
       <c r="F6">
-        <v>-6.362050571800099</v>
+        <v>1.037777105737507</v>
       </c>
       <c r="G6">
-        <v>0.5041566605930045</v>
+        <v>0.7058001519825006</v>
       </c>
       <c r="H6">
-        <v>0.5041566605930045</v>
+        <v>0.7058001519825006</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5419,25 +5410,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7373776812264297</v>
+        <v>1.015453280848944</v>
       </c>
       <c r="D7">
-        <v>0.1024711741768458</v>
+        <v>0.1772264253986094</v>
       </c>
       <c r="E7">
-        <v>127</v>
+        <v>2136</v>
       </c>
       <c r="F7">
-        <v>-3.623875701731444</v>
+        <v>1.220483283301646</v>
       </c>
       <c r="G7">
-        <v>0.7373776812264297</v>
+        <v>1.015453280848944</v>
       </c>
       <c r="H7">
-        <v>0.7373776812264297</v>
+        <v>1.015453280848944</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5457,25 +5448,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9762495817434245</v>
+        <v>1.381962715212637</v>
       </c>
       <c r="D8">
-        <v>0.1839106954501617</v>
+        <v>0.2295637270577723</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>1399</v>
       </c>
       <c r="F8">
-        <v>-1.53347510267103</v>
+        <v>1.52230597599222</v>
       </c>
       <c r="G8">
-        <v>0.9762495817434245</v>
+        <v>1.381962715212637</v>
       </c>
       <c r="H8">
-        <v>0.9762495817434245</v>
+        <v>1.381962715212637</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5495,25 +5486,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.196979915418489</v>
+        <v>1.861002333128394</v>
       </c>
       <c r="D9">
-        <v>0.2688256186325094</v>
+        <v>0.3191305727055826</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>815</v>
       </c>
       <c r="F9">
-        <v>0.01462140770944487</v>
+        <v>1.91974668267929</v>
       </c>
       <c r="G9">
-        <v>1.196979915418489</v>
+        <v>1.861002333128394</v>
       </c>
       <c r="H9">
-        <v>1.196979915418489</v>
+        <v>1.861002333128394</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5533,25 +5524,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.627357133510497</v>
+        <v>2.382246791590206</v>
       </c>
       <c r="D10">
-        <v>0.2580298405700576</v>
+        <v>0.3971460253596406</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>459</v>
       </c>
       <c r="F10">
-        <v>1.125884011738293</v>
+        <v>2.389306902232921</v>
       </c>
       <c r="G10">
-        <v>1.627357133510497</v>
+        <v>2.382246791590206</v>
       </c>
       <c r="H10">
-        <v>1.627357133510497</v>
+        <v>2.382246791590206</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5560,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -5571,31 +5562,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.949433074663655</v>
+        <v>2.921936311360577</v>
       </c>
       <c r="D11">
-        <v>0.2802388871206052</v>
+        <v>0.4422444175817666</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="F11">
-        <v>1.90578289174384</v>
+        <v>2.90748813352317</v>
       </c>
       <c r="G11">
-        <v>1.949433074663655</v>
+        <v>2.90748813352317</v>
       </c>
       <c r="H11">
-        <v>1.949433074663655</v>
+        <v>2.90748813352317</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5609,31 +5600,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.32737658176182</v>
+        <v>3.463600270486519</v>
       </c>
       <c r="D12">
-        <v>0.5702546497447921</v>
+        <v>0.4464126299233725</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F12">
-        <v>2.459788230054372</v>
+        <v>3.450791875420101</v>
       </c>
       <c r="G12">
-        <v>2.32737658176182</v>
+        <v>3.450791875420101</v>
       </c>
       <c r="H12">
-        <v>2.32737658176182</v>
+        <v>3.450791875420101</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5647,31 +5638,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.986514973007837</v>
+        <v>3.941206480983289</v>
       </c>
       <c r="D13">
-        <v>0.2589899888103785</v>
+        <v>0.7802421717590108</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F13">
-        <v>2.893370208998213</v>
+        <v>3.995719626793782</v>
       </c>
       <c r="G13">
-        <v>2.986514973007837</v>
+        <v>3.995719626793782</v>
       </c>
       <c r="H13">
-        <v>2.986514973007837</v>
+        <v>3.995719626793782</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5685,25 +5676,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.390532779483189</v>
+        <v>4.566881834790689</v>
       </c>
       <c r="D14">
-        <v>0.6594315988741744</v>
+        <v>0.5469433338562845</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>3.311999010903698</v>
+        <v>4.518772886514265</v>
       </c>
       <c r="G14">
-        <v>3.311999010903698</v>
+        <v>4.518772886514265</v>
       </c>
       <c r="H14">
-        <v>3.311999010903698</v>
+        <v>4.518772886514265</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5723,25 +5714,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.696038667522052</v>
+        <v>4.982660888722009</v>
       </c>
       <c r="D15">
-        <v>0.511573844794362</v>
+        <v>0.662061040690358</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>3.821144818099114</v>
+        <v>4.996453153451617</v>
       </c>
       <c r="G15">
-        <v>3.821144818099114</v>
+        <v>4.996453153451617</v>
       </c>
       <c r="H15">
-        <v>3.821144818099114</v>
+        <v>4.996453153451617</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5761,37 +5752,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
-      </c>
-      <c r="C16">
-        <v>4.568466896290264</v>
-      </c>
-      <c r="D16">
-        <v>0.2339052305422007</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4.526277812912767</v>
+        <v>5.405261926475898</v>
       </c>
       <c r="G16">
-        <v>4.526277812912767</v>
-      </c>
-      <c r="H16">
-        <v>4.526277812912767</v>
+        <v>5.405261926475898</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5799,25 +5781,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>4.7155</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5.532868177672938</v>
+        <v>5.721700704457175</v>
       </c>
       <c r="G17">
-        <v>5.532868177672938</v>
+        <v>5.721700704457175</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5834,16 +5810,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.946386094708032</v>
+        <v>5.922270986265502</v>
       </c>
       <c r="G18">
-        <v>6.946386094708032</v>
+        <v>5.922270986265502</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5863,16 +5839,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8.872301746346281</v>
+        <v>5.983474270770945</v>
       </c>
       <c r="G19">
-        <v>8.872301746346281</v>
+        <v>5.983474270770945</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5892,16 +5868,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>11.41608531491602</v>
+        <v>5.881812056843566</v>
       </c>
       <c r="G20">
-        <v>11.41608531491602</v>
+        <v>5.881812056843566</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5921,16 +5897,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>14.68320698274552</v>
+        <v>5.59378584335343</v>
       </c>
       <c r="G21">
-        <v>14.68320698274552</v>
+        <v>5.59378584335343</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5998,25 +5974,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01648110143588306</v>
+        <v>0.030883467260044</v>
       </c>
       <c r="D2">
-        <v>0.009461470107283659</v>
+        <v>0.0236716892273371</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="F2">
-        <v>8.983799317611524</v>
+        <v>9.561069049097728</v>
       </c>
       <c r="G2">
-        <v>0.01648110143588306</v>
+        <v>0.030883467260044</v>
       </c>
       <c r="H2">
-        <v>0.01648110143588306</v>
+        <v>0.030883467260044</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6036,25 +6012,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.09519839747759394</v>
+        <v>0.118381510030438</v>
       </c>
       <c r="D3">
-        <v>0.05597633717173039</v>
+        <v>0.06965472363932822</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>1764</v>
       </c>
       <c r="F3">
-        <v>7.039390915467744</v>
+        <v>7.162226376089101</v>
       </c>
       <c r="G3">
-        <v>0.09519839747759394</v>
+        <v>0.118381510030438</v>
       </c>
       <c r="H3">
-        <v>0.09519839747759394</v>
+        <v>0.118381510030438</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6074,25 +6050,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1872918172717546</v>
+        <v>0.2636792595783235</v>
       </c>
       <c r="D4">
-        <v>0.09330474796747985</v>
+        <v>0.0907374689816394</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>2774</v>
       </c>
       <c r="F4">
-        <v>5.446066930710059</v>
+        <v>5.286722514787145</v>
       </c>
       <c r="G4">
-        <v>0.1872918172717546</v>
+        <v>0.2636792595783235</v>
       </c>
       <c r="H4">
-        <v>0.1872918172717546</v>
+        <v>0.2636792595783235</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6112,25 +6088,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.326748936952424</v>
+        <v>0.442676782573802</v>
       </c>
       <c r="D5">
-        <v>0.100232725053048</v>
+        <v>0.09904842624428202</v>
       </c>
       <c r="E5">
-        <v>115</v>
+        <v>3274</v>
       </c>
       <c r="F5">
-        <v>4.177662999656851</v>
+        <v>3.885439841003719</v>
       </c>
       <c r="G5">
-        <v>0.326748936952424</v>
+        <v>0.442676782573802</v>
       </c>
       <c r="H5">
-        <v>0.326748936952424</v>
+        <v>0.442676782573802</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6150,25 +6126,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4846366040980403</v>
+        <v>0.7084800913207969</v>
       </c>
       <c r="D6">
-        <v>0.1097612340726699</v>
+        <v>0.133064488275911</v>
       </c>
       <c r="E6">
-        <v>119</v>
+        <v>3162</v>
       </c>
       <c r="F6">
-        <v>3.208014758626496</v>
+        <v>2.909260730550686</v>
       </c>
       <c r="G6">
-        <v>0.4846366040980403</v>
+        <v>0.7084800913207969</v>
       </c>
       <c r="H6">
-        <v>0.4846366040980403</v>
+        <v>0.7084800913207969</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6188,25 +6164,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7341618081176099</v>
+        <v>1.013664705050124</v>
       </c>
       <c r="D7">
-        <v>0.1338381985013026</v>
+        <v>0.1618139110788102</v>
       </c>
       <c r="E7">
-        <v>135</v>
+        <v>2741</v>
       </c>
       <c r="F7">
-        <v>2.510957843937378</v>
+        <v>2.309067559239899</v>
       </c>
       <c r="G7">
-        <v>0.7341618081176099</v>
+        <v>1.013664705050124</v>
       </c>
       <c r="H7">
-        <v>0.7341618081176099</v>
+        <v>1.013664705050124</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6226,25 +6202,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9706295254732049</v>
+        <v>1.376827900800871</v>
       </c>
       <c r="D8">
-        <v>0.1469455155626793</v>
+        <v>0.1969383204187704</v>
       </c>
       <c r="E8">
-        <v>118</v>
+        <v>2112</v>
       </c>
       <c r="F8">
-        <v>2.060327891907876</v>
+        <v>2.035742702883221</v>
       </c>
       <c r="G8">
-        <v>0.9706295254732049</v>
+        <v>1.376827900800871</v>
       </c>
       <c r="H8">
-        <v>0.9706295254732049</v>
+        <v>1.376827900800871</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6264,25 +6240,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.282485605474228</v>
+        <v>1.774550678872896</v>
       </c>
       <c r="D9">
-        <v>0.1418696659948702</v>
+        <v>0.2683236700896046</v>
       </c>
       <c r="E9">
-        <v>107</v>
+        <v>1186</v>
       </c>
       <c r="F9">
-        <v>1.829960538856371</v>
+        <v>2.040168537292516</v>
       </c>
       <c r="G9">
-        <v>1.282485605474228</v>
+        <v>1.774550678872896</v>
       </c>
       <c r="H9">
-        <v>1.282485605474228</v>
+        <v>1.774550678872896</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6302,25 +6278,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.596877192118461</v>
+        <v>2.233310687246408</v>
       </c>
       <c r="D10">
-        <v>0.2181016310084045</v>
+        <v>0.2887486128227849</v>
       </c>
       <c r="E10">
-        <v>86</v>
+        <v>707</v>
       </c>
       <c r="F10">
-        <v>1.793691421101244</v>
+        <v>2.273227438279632</v>
       </c>
       <c r="G10">
-        <v>1.596877192118461</v>
+        <v>2.233310687246408</v>
       </c>
       <c r="H10">
-        <v>1.596877192118461</v>
+        <v>2.233310687246408</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6329,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6340,31 +6316,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.912739730984027</v>
+        <v>2.766658554606974</v>
       </c>
       <c r="D11">
-        <v>0.2531383351847929</v>
+        <v>0.2953663655561745</v>
       </c>
       <c r="E11">
-        <v>66</v>
+        <v>394</v>
       </c>
       <c r="F11">
-        <v>1.925356174960875</v>
+        <v>2.685801781656444</v>
       </c>
       <c r="G11">
-        <v>1.912739730984027</v>
+        <v>2.685801781656444</v>
       </c>
       <c r="H11">
-        <v>1.912739730984027</v>
+        <v>2.685801781656444</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6378,31 +6354,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.266539848645948</v>
+        <v>3.257202878202418</v>
       </c>
       <c r="D12">
-        <v>0.224842513551152</v>
+        <v>0.3424096359553644</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="F12">
-        <v>2.198790436753642</v>
+        <v>3.228773943234785</v>
       </c>
       <c r="G12">
-        <v>2.266539848645948</v>
+        <v>3.228773943234785</v>
       </c>
       <c r="H12">
-        <v>2.266539848645948</v>
+        <v>3.228773943234785</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6416,31 +6392,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.46938172925661</v>
+        <v>3.729077850196785</v>
       </c>
       <c r="D13">
-        <v>0.5612793359487026</v>
+        <v>0.4883538932626512</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="F13">
-        <v>2.58782984279793</v>
+        <v>3.853026298826549</v>
       </c>
       <c r="G13">
-        <v>2.46938172925661</v>
+        <v>3.853026298826549</v>
       </c>
       <c r="H13">
-        <v>2.46938172925661</v>
+        <v>3.853026298826549</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6454,31 +6430,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.12217235259528</v>
+        <v>4.500896496403059</v>
       </c>
       <c r="D14">
-        <v>0.2171200569272566</v>
+        <v>0.547005655262255</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>3.066310029412115</v>
+        <v>4.509441224243567</v>
       </c>
       <c r="G14">
-        <v>3.12217235259528</v>
+        <v>4.509441224243567</v>
       </c>
       <c r="H14">
-        <v>3.12217235259528</v>
+        <v>4.509441224243567</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6492,31 +6468,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.672718799548307</v>
+        <v>5.259336798494655</v>
       </c>
       <c r="D15">
-        <v>0.206954101862654</v>
+        <v>0.2641330535923135</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>3.608066632914571</v>
+        <v>5.148901095297724</v>
       </c>
       <c r="G15">
-        <v>3.672718799548307</v>
+        <v>5.148901095297724</v>
       </c>
       <c r="H15">
-        <v>3.672718799548307</v>
+        <v>5.148901095297724</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6530,25 +6506,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.073957107857994</v>
+        <v>5.674976804205899</v>
       </c>
       <c r="D16">
-        <v>0.2697517680922386</v>
+        <v>1.389804229544916</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>4.186935289623694</v>
+        <v>5.722288287800836</v>
       </c>
       <c r="G16">
-        <v>4.186935289623694</v>
+        <v>5.722288287800836</v>
       </c>
       <c r="H16">
-        <v>4.186935289623694</v>
+        <v>5.722288287800836</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6568,37 +6544,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>4.876394433789056</v>
-      </c>
-      <c r="D17">
-        <v>0.2153072459401239</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4.776751635857867</v>
+        <v>6.180485177564812</v>
       </c>
       <c r="G17">
-        <v>4.776751635857867</v>
-      </c>
-      <c r="H17">
-        <v>4.776751635857867</v>
+        <v>6.180485177564812</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6606,37 +6573,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
-      </c>
-      <c r="C18">
-        <v>5.290454324535842</v>
-      </c>
-      <c r="D18">
-        <v>0.1502615639476708</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5.351351307935445</v>
+        <v>6.474374140401487</v>
       </c>
       <c r="G18">
-        <v>5.351351307935445</v>
-      </c>
-      <c r="H18">
-        <v>5.351351307935445</v>
+        <v>6.474374140401487</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6644,37 +6602,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
-      </c>
-      <c r="C19">
-        <v>5.901602965166458</v>
-      </c>
-      <c r="D19">
-        <v>0.1640268043472735</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>5.884569942174835</v>
+        <v>6.554837552122713</v>
       </c>
       <c r="G19">
-        <v>5.884569942174835</v>
-      </c>
-      <c r="H19">
-        <v>5.884569942174835</v>
+        <v>6.554837552122713</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6682,16 +6631,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6.350243174894402</v>
+        <v>6.372757788540362</v>
       </c>
       <c r="G20">
-        <v>6.350243174894402</v>
+        <v>6.372757788540362</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -6711,16 +6660,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6.72220664241253</v>
+        <v>5.879017225466299</v>
       </c>
       <c r="G21">
-        <v>6.72220664241253</v>
+        <v>5.879017225466299</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -6788,25 +6737,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.01086276549947879</v>
+        <v>0.02751764559809372</v>
       </c>
       <c r="D2">
-        <v>0.005092265858687619</v>
+        <v>0.02228492210239072</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="F2">
-        <v>13.98007394180828</v>
+        <v>0.01051823477736966</v>
       </c>
       <c r="G2">
-        <v>0.01086276549947879</v>
+        <v>0.02751764559809372</v>
       </c>
       <c r="H2">
-        <v>0.01086276549947879</v>
+        <v>0.02751764559809372</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6826,25 +6775,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.08605051639077757</v>
+        <v>0.1108420371476254</v>
       </c>
       <c r="D3">
-        <v>0.04968955517988283</v>
+        <v>0.06812593993011253</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>1668</v>
       </c>
       <c r="F3">
-        <v>10.35577798771776</v>
+        <v>0.08802421120846327</v>
       </c>
       <c r="G3">
-        <v>0.08605051639077757</v>
+        <v>0.1108420371476254</v>
       </c>
       <c r="H3">
-        <v>0.08605051639077757</v>
+        <v>0.1108420371476254</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6864,25 +6813,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1967671664946139</v>
+        <v>0.2611249217184973</v>
       </c>
       <c r="D4">
-        <v>0.08953720381754716</v>
+        <v>0.09869844405164138</v>
       </c>
       <c r="E4">
-        <v>116</v>
+        <v>2771</v>
       </c>
       <c r="F4">
-        <v>7.483783466409683</v>
+        <v>0.2306083466990161</v>
       </c>
       <c r="G4">
-        <v>0.1967671664946139</v>
+        <v>0.2611249217184973</v>
       </c>
       <c r="H4">
-        <v>0.1967671664946139</v>
+        <v>0.2611249217184973</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6902,25 +6851,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3403971147904399</v>
+        <v>0.4539409352795253</v>
       </c>
       <c r="D5">
-        <v>0.1017857092882515</v>
+        <v>0.1063003080927979</v>
       </c>
       <c r="E5">
-        <v>156</v>
+        <v>3870</v>
       </c>
       <c r="F5">
-        <v>5.28692185629085</v>
+        <v>0.4342008691132142</v>
       </c>
       <c r="G5">
-        <v>0.3403971147904399</v>
+        <v>0.4539409352795253</v>
       </c>
       <c r="H5">
-        <v>0.3403971147904399</v>
+        <v>0.4539409352795253</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6940,25 +6889,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.51408062010385</v>
+        <v>0.7192131920324434</v>
       </c>
       <c r="D6">
-        <v>0.1225971533558997</v>
+        <v>0.1357303388652721</v>
       </c>
       <c r="E6">
-        <v>234</v>
+        <v>4247</v>
       </c>
       <c r="F6">
-        <v>3.688024635768051</v>
+        <v>0.6947320063152431</v>
       </c>
       <c r="G6">
-        <v>0.51408062010385</v>
+        <v>0.7192131920324434</v>
       </c>
       <c r="H6">
-        <v>0.51408062010385</v>
+        <v>0.7192131920324434</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6978,25 +6927,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7463239718288143</v>
+        <v>1.032977765395467</v>
       </c>
       <c r="D7">
-        <v>0.1470964307105625</v>
+        <v>0.1645404809728079</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>3786</v>
       </c>
       <c r="F7">
-        <v>2.609923283248072</v>
+        <v>1.008131986169289</v>
       </c>
       <c r="G7">
-        <v>0.7463239718288143</v>
+        <v>1.032977765395467</v>
       </c>
       <c r="H7">
-        <v>0.7463239718288143</v>
+        <v>1.032977765395467</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7016,25 +6965,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.99724215217615</v>
+        <v>1.379680569268377</v>
       </c>
       <c r="D8">
-        <v>0.1862323538971884</v>
+        <v>0.1801473111302456</v>
       </c>
       <c r="E8">
-        <v>205</v>
+        <v>3494</v>
       </c>
       <c r="F8">
-        <v>1.975449277137708</v>
+        <v>1.370331036539538</v>
       </c>
       <c r="G8">
-        <v>0.99724215217615</v>
+        <v>1.379680569268377</v>
       </c>
       <c r="H8">
-        <v>0.99724215217615</v>
+        <v>1.379680569268377</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7054,25 +7003,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.279122841929918</v>
+        <v>1.766320061587044</v>
       </c>
       <c r="D9">
-        <v>0.181284059312526</v>
+        <v>0.2187092687296969</v>
       </c>
       <c r="E9">
-        <v>222</v>
+        <v>2157</v>
       </c>
       <c r="F9">
-        <v>1.707434095843748</v>
+        <v>1.777259385290176</v>
       </c>
       <c r="G9">
-        <v>1.279122841929918</v>
+        <v>1.766320061587044</v>
       </c>
       <c r="H9">
-        <v>1.279122841929918</v>
+        <v>1.766320061587044</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7092,25 +7041,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.579278749175522</v>
+        <v>2.223368638957999</v>
       </c>
       <c r="D10">
-        <v>0.1658748377798264</v>
+        <v>0.2421084910032913</v>
       </c>
       <c r="E10">
-        <v>154</v>
+        <v>1337</v>
       </c>
       <c r="F10">
-        <v>1.728709217772984</v>
+        <v>2.224847260285388</v>
       </c>
       <c r="G10">
-        <v>1.579278749175522</v>
+        <v>2.223368638957999</v>
       </c>
       <c r="H10">
-        <v>1.579278749175522</v>
+        <v>2.223368638957999</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7119,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7130,25 +7079,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.959819931359797</v>
+        <v>2.714685402148509</v>
       </c>
       <c r="D11">
-        <v>0.2474680988673269</v>
+        <v>0.2325625954547272</v>
       </c>
       <c r="E11">
-        <v>127</v>
+        <v>1031</v>
       </c>
       <c r="F11">
-        <v>1.962106121332212</v>
+        <v>2.709024889389362</v>
       </c>
       <c r="G11">
-        <v>1.959819931359797</v>
+        <v>2.714685402148509</v>
       </c>
       <c r="H11">
-        <v>1.959819931359797</v>
+        <v>2.714685402148509</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7168,31 +7117,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.339601044812323</v>
+        <v>3.217866662703684</v>
       </c>
       <c r="D12">
-        <v>0.2636399069754791</v>
+        <v>0.2805549339711176</v>
       </c>
       <c r="E12">
-        <v>107</v>
+        <v>624</v>
       </c>
       <c r="F12">
-        <v>2.330456284928214</v>
+        <v>3.225722500466281</v>
       </c>
       <c r="G12">
-        <v>2.339601044812323</v>
+        <v>3.225722500466281</v>
       </c>
       <c r="H12">
-        <v>2.339601044812323</v>
+        <v>3.225722500466281</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7206,31 +7155,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.742874047137699</v>
+        <v>3.775260971387303</v>
       </c>
       <c r="D13">
-        <v>0.2230759777486601</v>
+        <v>0.2124687157687746</v>
       </c>
       <c r="E13">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="F13">
-        <v>2.756591186967796</v>
+        <v>3.770870321380334</v>
       </c>
       <c r="G13">
-        <v>2.742874047137699</v>
+        <v>3.770870321380334</v>
       </c>
       <c r="H13">
-        <v>2.742874047137699</v>
+        <v>3.770870321380334</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7244,25 +7193,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.17248706574118</v>
+        <v>4.339935848870083</v>
       </c>
       <c r="D14">
-        <v>0.2408961943170581</v>
+        <v>0.2400436385375935</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>3.163342305857725</v>
+        <v>4.340398579995705</v>
       </c>
       <c r="G14">
-        <v>3.163342305857725</v>
+        <v>4.340398579995705</v>
       </c>
       <c r="H14">
-        <v>3.163342305857725</v>
+        <v>4.340398579995705</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7282,25 +7231,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.471254930030242</v>
+        <v>4.929983531626172</v>
       </c>
       <c r="D15">
-        <v>0.164253426594845</v>
+        <v>0.2093428746553727</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>3.473541120004796</v>
+        <v>4.93023750417658</v>
       </c>
       <c r="G15">
-        <v>3.473541120004796</v>
+        <v>4.93023750417658</v>
       </c>
       <c r="H15">
-        <v>3.473541120004796</v>
+        <v>4.93023750417658</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7320,19 +7269,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
+      </c>
+      <c r="C16">
+        <v>5.3652</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>3.610019107815845</v>
+        <v>5.536317321787144</v>
       </c>
       <c r="G16">
-        <v>3.610019107815845</v>
+        <v>5.536317321787144</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -7349,16 +7304,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.495607747697605</v>
+        <v>6.154568260691586</v>
       </c>
       <c r="G17">
-        <v>3.495607747697605</v>
+        <v>6.154568260691586</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -7378,16 +7333,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.053138518056883</v>
+        <v>6.780920548754089</v>
       </c>
       <c r="G18">
-        <v>3.053138518056883</v>
+        <v>6.780920548754089</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -7407,16 +7362,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.205442897300486</v>
+        <v>7.411304413838839</v>
       </c>
       <c r="G19">
-        <v>2.205442897300486</v>
+        <v>7.411304413838839</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -7436,16 +7391,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.875352363835205</v>
+        <v>8.041650083810023</v>
       </c>
       <c r="G20">
-        <v>0.875352363835205</v>
+        <v>8.041650083810023</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -7465,16 +7420,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1.014301603932182</v>
+        <v>8.667887786531827</v>
       </c>
       <c r="G21">
-        <v>-1.014301603932182</v>
+        <v>8.667887786531827</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -7542,25 +7497,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.002099202181036087</v>
+        <v>0.02335942456408648</v>
       </c>
       <c r="D2">
-        <v>0.001650546105795156</v>
+        <v>0.01915320811716497</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="F2">
-        <v>1.460197182542056</v>
+        <v>-0.2551208757255229</v>
       </c>
       <c r="G2">
-        <v>0.002099202181036087</v>
+        <v>0.02335942456408648</v>
       </c>
       <c r="H2">
-        <v>0.002099202181036087</v>
+        <v>0.02335942456408648</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7580,25 +7535,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.08834411560442405</v>
+        <v>0.1090070640598599</v>
       </c>
       <c r="D3">
-        <v>0.05393243194266636</v>
+        <v>0.06711953234814037</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>1623</v>
       </c>
       <c r="F3">
-        <v>0.9418619447750197</v>
+        <v>-0.1733537945849349</v>
       </c>
       <c r="G3">
-        <v>0.08834411560442405</v>
+        <v>0.1090070640598599</v>
       </c>
       <c r="H3">
-        <v>0.08834411560442405</v>
+        <v>0.1090070640598599</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7618,25 +7573,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1864623091837889</v>
+        <v>0.256366681797415</v>
       </c>
       <c r="D4">
-        <v>0.09147176534093936</v>
+        <v>0.1010574973645523</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>2882</v>
       </c>
       <c r="F4">
-        <v>0.6123001975747973</v>
+        <v>-0.013546021646059</v>
       </c>
       <c r="G4">
-        <v>0.1864623091837889</v>
+        <v>0.256366681797415</v>
       </c>
       <c r="H4">
-        <v>0.1864623091837889</v>
+        <v>0.256366681797415</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7656,25 +7611,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3225760061760163</v>
+        <v>0.4411046415879756</v>
       </c>
       <c r="D5">
-        <v>0.1196370666971674</v>
+        <v>0.1085284730362445</v>
       </c>
       <c r="E5">
-        <v>166</v>
+        <v>3764</v>
       </c>
       <c r="F5">
-        <v>0.450544925624534</v>
+        <v>0.2161021632542316</v>
       </c>
       <c r="G5">
-        <v>0.3225760061760163</v>
+        <v>0.4411046415879756</v>
       </c>
       <c r="H5">
-        <v>0.3225760061760163</v>
+        <v>0.4411046415879756</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7694,25 +7649,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4788173112368528</v>
+        <v>0.7020744734830151</v>
       </c>
       <c r="D6">
-        <v>0.1205635598370059</v>
+        <v>0.1370319438212791</v>
       </c>
       <c r="E6">
-        <v>157</v>
+        <v>4471</v>
       </c>
       <c r="F6">
-        <v>0.4356291136073758</v>
+        <v>0.5073904802790634</v>
       </c>
       <c r="G6">
-        <v>0.4788173112368528</v>
+        <v>0.7020744734830151</v>
       </c>
       <c r="H6">
-        <v>0.4788173112368528</v>
+        <v>0.7020744734830151</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7732,25 +7687,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7013398756234979</v>
+        <v>0.9853212818737592</v>
       </c>
       <c r="D7">
-        <v>0.1353938682781377</v>
+        <v>0.1629056120797877</v>
       </c>
       <c r="E7">
-        <v>192</v>
+        <v>4155</v>
       </c>
       <c r="F7">
-        <v>0.5465857462064676</v>
+        <v>0.8521186495915638</v>
       </c>
       <c r="G7">
-        <v>0.7013398756234979</v>
+        <v>0.9853212818737592</v>
       </c>
       <c r="H7">
-        <v>0.7013398756234979</v>
+        <v>0.9853212818737592</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7770,25 +7725,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.923601695057969</v>
+        <v>1.319547993868716</v>
       </c>
       <c r="D8">
-        <v>0.1342978679823538</v>
+        <v>0.1733487483787838</v>
       </c>
       <c r="E8">
-        <v>215</v>
+        <v>3685</v>
       </c>
       <c r="F8">
-        <v>0.7624478081049548</v>
+        <v>1.242086391354859</v>
       </c>
       <c r="G8">
-        <v>0.923601695057969</v>
+        <v>1.319547993868716</v>
       </c>
       <c r="H8">
-        <v>0.923601695057969</v>
+        <v>1.319547993868716</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7808,25 +7763,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.222546926876968</v>
+        <v>1.67590111338419</v>
       </c>
       <c r="D9">
-        <v>0.1566179032764844</v>
+        <v>0.1941784847741878</v>
       </c>
       <c r="E9">
-        <v>239</v>
+        <v>2358</v>
       </c>
       <c r="F9">
-        <v>1.062248283985983</v>
+        <v>1.669093425732076</v>
       </c>
       <c r="G9">
-        <v>1.222546926876968</v>
+        <v>1.67590111338419</v>
       </c>
       <c r="H9">
-        <v>1.222546926876968</v>
+        <v>1.67590111338419</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7846,25 +7801,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.508367633932193</v>
+        <v>2.123558435590573</v>
       </c>
       <c r="D10">
-        <v>0.1305979665468736</v>
+        <v>0.2139062007954928</v>
       </c>
       <c r="E10">
-        <v>276</v>
+        <v>1756</v>
       </c>
       <c r="F10">
-        <v>1.425020158532696</v>
+        <v>2.124939472886342</v>
       </c>
       <c r="G10">
-        <v>1.508367633932193</v>
+        <v>2.123558435590573</v>
       </c>
       <c r="H10">
-        <v>1.508367633932193</v>
+        <v>2.123558435590573</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7873,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7884,25 +7839,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.820683460367876</v>
+        <v>2.606948402163841</v>
       </c>
       <c r="D11">
-        <v>0.1793134413277549</v>
+        <v>0.2673269233892898</v>
       </c>
       <c r="E11">
-        <v>119</v>
+        <v>1143</v>
       </c>
       <c r="F11">
-        <v>1.829796416428241</v>
+        <v>2.601424252980783</v>
       </c>
       <c r="G11">
-        <v>1.820683460367876</v>
+        <v>2.606948402163841</v>
       </c>
       <c r="H11">
-        <v>1.820683460367876</v>
+        <v>2.606948402163841</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7922,31 +7877,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.267163132303494</v>
+        <v>3.082061262403929</v>
       </c>
       <c r="D12">
-        <v>0.223833913795652</v>
+        <v>0.2938833040296344</v>
       </c>
       <c r="E12">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="F12">
-        <v>2.255610042355768</v>
+        <v>3.090347486178526</v>
       </c>
       <c r="G12">
-        <v>2.267163132303494</v>
+        <v>3.090347486178526</v>
       </c>
       <c r="H12">
-        <v>2.267163132303494</v>
+        <v>3.090347486178526</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7960,31 +7915,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.712018065430653</v>
+        <v>3.589033041825761</v>
       </c>
       <c r="D13">
-        <v>0.2266271368994991</v>
+        <v>0.2581688198857746</v>
       </c>
       <c r="E13">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="F13">
-        <v>2.681494020998411</v>
+        <v>3.583508892642699</v>
       </c>
       <c r="G13">
-        <v>2.712018065430653</v>
+        <v>3.583508892642699</v>
       </c>
       <c r="H13">
-        <v>2.712018065430653</v>
+        <v>3.583508892642699</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7998,31 +7953,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.031113381042621</v>
+        <v>4.071327155240659</v>
       </c>
       <c r="D14">
-        <v>0.1587377442492263</v>
+        <v>0.3778560638325127</v>
       </c>
       <c r="E14">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>3.086481337039324</v>
+        <v>4.072708192536428</v>
       </c>
       <c r="G14">
-        <v>3.031113381042621</v>
+        <v>4.072708192536428</v>
       </c>
       <c r="H14">
-        <v>3.031113381042621</v>
+        <v>4.072708192536428</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8036,25 +7991,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.453728017986104</v>
+        <v>4.578376421068937</v>
       </c>
       <c r="D15">
-        <v>0.2315761890998828</v>
+        <v>0.4213140758389162</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>3.449604975161643</v>
+        <v>4.549745106022841</v>
       </c>
       <c r="G15">
-        <v>3.449604975161643</v>
-      </c>
-      <c r="H15">
-        <v>3.449604975161643</v>
+        <v>4.549745106022841</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -8063,10 +8015,10 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8074,37 +8026,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
-      </c>
-      <c r="C16">
-        <v>3.782571811281314</v>
-      </c>
-      <c r="D16">
-        <v>0.09414641522649718</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3.749897920048527</v>
+        <v>5.006419353265058</v>
       </c>
       <c r="G16">
-        <v>3.749897920048527</v>
-      </c>
-      <c r="H16">
-        <v>3.749897920048527</v>
+        <v>5.006419353265058</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8112,37 +8055,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
-      </c>
-      <c r="C17">
-        <v>3.952</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3.966393156383116</v>
+        <v>5.434530654426215</v>
       </c>
       <c r="G17">
-        <v>3.966393156383116</v>
-      </c>
-      <c r="H17">
-        <v>3.966393156383116</v>
+        <v>5.434530654426215</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8150,16 +8084,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.078123668848551</v>
+        <v>5.825878729669435</v>
       </c>
       <c r="G18">
-        <v>4.078123668848551</v>
+        <v>5.825878729669435</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8179,16 +8113,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.064122442127982</v>
+        <v>6.172263299157844</v>
       </c>
       <c r="G19">
-        <v>4.064122442127982</v>
+        <v>6.172263299157844</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -8208,16 +8142,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.903422460904547</v>
+        <v>6.465484083054569</v>
       </c>
       <c r="G20">
-        <v>3.903422460904547</v>
+        <v>6.465484083054569</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -8237,16 +8171,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.5750567098614</v>
+        <v>6.697340801522739</v>
       </c>
       <c r="G21">
-        <v>3.5750567098614</v>
+        <v>6.697340801522739</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -8314,25 +8248,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>7.930638803085159E-05</v>
+        <v>0.02161786345245274</v>
       </c>
       <c r="D2">
-        <v>8.804999999999994E-07</v>
+        <v>0.01755025283666739</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="F2">
-        <v>6.415622175283604</v>
+        <v>-7.63336420499454</v>
       </c>
       <c r="G2">
-        <v>7.930638803085159E-05</v>
+        <v>0.02161786345245274</v>
       </c>
       <c r="H2">
-        <v>7.930638803085159E-05</v>
+        <v>0.02161786345245274</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -8352,25 +8286,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.08093284966502588</v>
+        <v>0.1023681728935876</v>
       </c>
       <c r="D3">
-        <v>0.05240286930514859</v>
+        <v>0.06506483392890014</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>1747</v>
       </c>
       <c r="F3">
-        <v>4.778168787115924</v>
+        <v>-5.54925147388508</v>
       </c>
       <c r="G3">
-        <v>0.08093284966502588</v>
+        <v>0.1023681728935876</v>
       </c>
       <c r="H3">
-        <v>0.08093284966502588</v>
+        <v>0.1023681728935876</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -8390,25 +8324,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1839282685221767</v>
+        <v>0.2525596680108579</v>
       </c>
       <c r="D4">
-        <v>0.08094788888678443</v>
+        <v>0.09732216083487641</v>
       </c>
       <c r="E4">
-        <v>116</v>
+        <v>3015</v>
       </c>
       <c r="F4">
-        <v>3.50316961219568</v>
+        <v>-3.785150436235027</v>
       </c>
       <c r="G4">
-        <v>0.1839282685221767</v>
+        <v>0.2525596680108579</v>
       </c>
       <c r="H4">
-        <v>0.1839282685221767</v>
+        <v>0.2525596680108579</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -8428,25 +8362,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3194461212409062</v>
+        <v>0.4256565531463302</v>
       </c>
       <c r="D5">
-        <v>0.09235911636812541</v>
+        <v>0.1068419754884877</v>
       </c>
       <c r="E5">
-        <v>131</v>
+        <v>3668</v>
       </c>
       <c r="F5">
-        <v>2.554370854272383</v>
+        <v>-2.308121678359954</v>
       </c>
       <c r="G5">
-        <v>0.3194461212409062</v>
+        <v>0.4256565531463302</v>
       </c>
       <c r="H5">
-        <v>0.3194461212409062</v>
+        <v>0.4256565531463302</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -8466,25 +8400,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4736382052882526</v>
+        <v>0.6710981243959265</v>
       </c>
       <c r="D6">
-        <v>0.1107347222353829</v>
+        <v>0.1365445149427413</v>
       </c>
       <c r="E6">
-        <v>164</v>
+        <v>3963</v>
       </c>
       <c r="F6">
-        <v>1.895518717095547</v>
+        <v>-1.085225786575437</v>
       </c>
       <c r="G6">
-        <v>0.4736382052882526</v>
+        <v>0.6710981243959265</v>
       </c>
       <c r="H6">
-        <v>0.4736382052882526</v>
+        <v>0.6710981243959265</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -8504,25 +8438,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.6855934060461784</v>
+        <v>0.9407015259495225</v>
       </c>
       <c r="D7">
-        <v>0.1198731719954052</v>
+        <v>0.1563342543562145</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>3610</v>
       </c>
       <c r="F7">
-        <v>1.490359404414682</v>
+        <v>-0.08352334719705112</v>
       </c>
       <c r="G7">
-        <v>0.6855934060461784</v>
+        <v>0.9407015259495225</v>
       </c>
       <c r="H7">
-        <v>0.6855934060461784</v>
+        <v>0.9407015259495225</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -8542,25 +8476,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.904031104945471</v>
+        <v>1.23246741574636</v>
       </c>
       <c r="D8">
-        <v>0.1472812541710361</v>
+        <v>0.1727375460052616</v>
       </c>
       <c r="E8">
-        <v>169</v>
+        <v>2727</v>
       </c>
       <c r="F8">
-        <v>1.302639119979299</v>
+        <v>0.7299250534596275</v>
       </c>
       <c r="G8">
-        <v>0.904031104945471</v>
+        <v>1.23246741574636</v>
       </c>
       <c r="H8">
-        <v>0.904031104945471</v>
+        <v>1.23246741574636</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -8580,25 +8514,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.129927640377116</v>
+        <v>1.556390289311833</v>
       </c>
       <c r="D9">
-        <v>0.1588972202678438</v>
+        <v>0.211545854010614</v>
       </c>
       <c r="E9">
-        <v>142</v>
+        <v>1594</v>
       </c>
       <c r="F9">
-        <v>1.296104067538915</v>
+        <v>1.388058829079021</v>
       </c>
       <c r="G9">
-        <v>1.129927640377116</v>
+        <v>1.556390289311833</v>
       </c>
       <c r="H9">
-        <v>1.129927640377116</v>
+        <v>1.556390289311833</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -8618,25 +8552,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.431760828479457</v>
+        <v>1.938671900553215</v>
       </c>
       <c r="D10">
-        <v>0.1919458702394811</v>
+        <v>0.2243504668737256</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>1207</v>
       </c>
       <c r="F10">
-        <v>1.434500450843039</v>
+        <v>1.923817393345557</v>
       </c>
       <c r="G10">
-        <v>1.431760828479457</v>
+        <v>1.938671900553215</v>
       </c>
       <c r="H10">
-        <v>1.431760828479457</v>
+        <v>1.938671900553215</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -8645,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -8656,31 +8590,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.675442405439624</v>
+        <v>2.341491298324268</v>
       </c>
       <c r="D11">
-        <v>0.2681327728228952</v>
+        <v>0.2588745980928815</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>658</v>
       </c>
       <c r="F11">
-        <v>1.681574473641177</v>
+        <v>2.370140159943654</v>
       </c>
       <c r="G11">
-        <v>1.675442405439624</v>
+        <v>2.370140159943654</v>
       </c>
       <c r="H11">
-        <v>1.675442405439624</v>
+        <v>2.370140159943654</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8694,31 +8628,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>1.996703129118932</v>
+        <v>2.738755948469071</v>
       </c>
       <c r="D12">
-        <v>0.2014321694488963</v>
+        <v>0.3524348617994538</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="F12">
-        <v>2.001072339682857</v>
+        <v>2.759966542557747</v>
       </c>
       <c r="G12">
-        <v>1.996703129118932</v>
+        <v>2.759966542557747</v>
       </c>
       <c r="H12">
-        <v>1.996703129118932</v>
+        <v>2.759966542557747</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8732,31 +8666,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.402196252658328</v>
+        <v>3.20047680308905</v>
       </c>
       <c r="D13">
-        <v>0.224985806645301</v>
+        <v>0.3327583155800232</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>2.356740252717579</v>
+        <v>3.12623595487225</v>
       </c>
       <c r="G13">
-        <v>2.402196252658328</v>
+        <v>3.12623595487225</v>
       </c>
       <c r="H13">
-        <v>2.402196252658328</v>
+        <v>3.12623595487225</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8770,25 +8704,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>2.696833886509989</v>
+        <v>3.470099838348763</v>
       </c>
       <c r="D14">
-        <v>0.2708334754578381</v>
+        <v>0.3151795143059428</v>
       </c>
       <c r="E14">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>2.712324416494852</v>
+        <v>3.501887810571588</v>
       </c>
       <c r="G14">
-        <v>2.712324416494852</v>
+        <v>3.501887810571588</v>
       </c>
       <c r="H14">
-        <v>2.712324416494852</v>
+        <v>3.501887810571588</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -8808,25 +8742,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>2.940979753840546</v>
+        <v>3.899674564226482</v>
       </c>
       <c r="D15">
-        <v>0.3130137966208519</v>
+        <v>0.4250241875010615</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>3.031571034764202</v>
+        <v>3.919861523340181</v>
       </c>
       <c r="G15">
-        <v>3.031571034764202</v>
+        <v>3.919861523340181</v>
       </c>
       <c r="H15">
-        <v>3.031571034764202</v>
+        <v>3.919861523340181</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -8846,25 +8780,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>3.382694925400949</v>
+        <v>4.425835538441678</v>
       </c>
       <c r="D16">
-        <v>0.07560116290992701</v>
+        <v>0.3014786047728801</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>3.27822631127512</v>
+        <v>4.413096506862477</v>
       </c>
       <c r="G16">
-        <v>3.27822631127512</v>
+        <v>4.413096506862477</v>
       </c>
       <c r="H16">
-        <v>3.27822631127512</v>
+        <v>4.413096506862477</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8884,25 +8818,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>3.382694925400949</v>
+        <v>4.4953</v>
       </c>
       <c r="D17">
-        <v>0.1890999999999998</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3.416036449777145</v>
+        <v>5.014532174822868</v>
       </c>
       <c r="G17">
-        <v>3.416036449777145</v>
-      </c>
-      <c r="H17">
-        <v>3.416036449777145</v>
+        <v>5.014532174822868</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -8911,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8922,19 +8853,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.40874765401977</v>
+        <v>5.757107940905801</v>
       </c>
       <c r="G18">
-        <v>3.40874765401977</v>
-      </c>
-      <c r="H18">
-        <v>3.40874765401977</v>
+        <v>5.757107940905801</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -8943,10 +8871,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8954,25 +8882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
-      </c>
-      <c r="C19">
-        <v>4.388415354658217</v>
-      </c>
-      <c r="D19">
-        <v>0.2609500000000002</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.220106127752508</v>
+        <v>6.673763218795699</v>
       </c>
       <c r="G19">
-        <v>3.220106127752508</v>
+        <v>6.673763218795699</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -8989,16 +8911,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.813858074724884</v>
+        <v>7.797437422176962</v>
       </c>
       <c r="G20">
-        <v>2.813858074724884</v>
+        <v>7.797437422176962</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9018,16 +8940,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.15374969868639</v>
+        <v>9.161069964734047</v>
       </c>
       <c r="G21">
-        <v>2.15374969868639</v>
+        <v>9.161069964734047</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9095,25 +9017,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.00470758409967087</v>
+        <v>0.02850924926645796</v>
       </c>
       <c r="D2">
-        <v>0.004013199113050959</v>
+        <v>0.02580416690667998</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="F2">
-        <v>-15.44811997380632</v>
+        <v>-6.195785104778975</v>
       </c>
       <c r="G2">
-        <v>0.00470758409967087</v>
+        <v>0.02850924926645796</v>
       </c>
       <c r="H2">
-        <v>0.00470758409967087</v>
+        <v>0.02850924926645796</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -9133,25 +9055,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.0795245179202717</v>
+        <v>0.1053468184835035</v>
       </c>
       <c r="D3">
-        <v>0.05593459685184499</v>
+        <v>0.06502677071445484</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>1814</v>
       </c>
       <c r="F3">
-        <v>-11.75478375190601</v>
+        <v>-4.630295835614349</v>
       </c>
       <c r="G3">
-        <v>0.0795245179202717</v>
+        <v>0.1053468184835035</v>
       </c>
       <c r="H3">
-        <v>0.0795245179202717</v>
+        <v>0.1053468184835035</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9171,25 +9093,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1809880824930279</v>
+        <v>0.2479368531720914</v>
       </c>
       <c r="D4">
-        <v>0.09266240459825432</v>
+        <v>0.0938539284707457</v>
       </c>
       <c r="E4">
-        <v>129</v>
+        <v>3174</v>
       </c>
       <c r="F4">
-        <v>-8.633085724890808</v>
+        <v>-3.260062607999965</v>
       </c>
       <c r="G4">
-        <v>0.1809880824930279</v>
+        <v>0.2479368531720914</v>
       </c>
       <c r="H4">
-        <v>0.1809880824930279</v>
+        <v>0.2479368531720914</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9209,25 +9131,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3268373272175409</v>
+        <v>0.4215497507729961</v>
       </c>
       <c r="D5">
-        <v>0.08708587153366804</v>
+        <v>0.1016839931032664</v>
       </c>
       <c r="E5">
-        <v>149</v>
+        <v>3930</v>
       </c>
       <c r="F5">
-        <v>-6.029891964901919</v>
+        <v>-2.066399881511952</v>
       </c>
       <c r="G5">
-        <v>0.3268373272175409</v>
+        <v>0.4215497507729961</v>
       </c>
       <c r="H5">
-        <v>0.3268373272175409</v>
+        <v>0.4215497507729961</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -9247,25 +9169,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4530385000775106</v>
+        <v>0.668875368253557</v>
       </c>
       <c r="D6">
-        <v>0.1237216077044265</v>
+        <v>0.1325582184434399</v>
       </c>
       <c r="E6">
-        <v>206</v>
+        <v>3968</v>
       </c>
       <c r="F6">
-        <v>-3.892068544080542</v>
+        <v>-1.030622115726439</v>
       </c>
       <c r="G6">
-        <v>0.4530385000775106</v>
+        <v>0.668875368253557</v>
       </c>
       <c r="H6">
-        <v>0.4530385000775106</v>
+        <v>0.668875368253557</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -9285,25 +9207,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.6623507371652201</v>
+        <v>0.9301141220059632</v>
       </c>
       <c r="D7">
-        <v>0.1332142802799861</v>
+        <v>0.1515462789207432</v>
       </c>
       <c r="E7">
-        <v>190</v>
+        <v>3871</v>
       </c>
       <c r="F7">
-        <v>-2.166481534567883</v>
+        <v>-0.1340437702195509</v>
       </c>
       <c r="G7">
-        <v>0.6623507371652201</v>
+        <v>0.9301141220059632</v>
       </c>
       <c r="H7">
-        <v>0.6623507371652201</v>
+        <v>0.9301141220059632</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -9323,25 +9245,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.8962486043768191</v>
+        <v>1.24785113414684</v>
       </c>
       <c r="D8">
-        <v>0.1514689286681771</v>
+        <v>0.1754896038389764</v>
       </c>
       <c r="E8">
-        <v>192</v>
+        <v>3303</v>
       </c>
       <c r="F8">
-        <v>-0.7999970085051391</v>
+        <v>0.6420206954325809</v>
       </c>
       <c r="G8">
-        <v>0.8962486043768191</v>
+        <v>1.24785113414684</v>
       </c>
       <c r="H8">
-        <v>0.8962486043768191</v>
+        <v>1.24785113414684</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -9361,25 +9283,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.188863097470418</v>
+        <v>1.585760319529169</v>
       </c>
       <c r="D9">
-        <v>0.1521385307793693</v>
+        <v>0.2062199716897951</v>
       </c>
       <c r="E9">
-        <v>115</v>
+        <v>2609</v>
       </c>
       <c r="F9">
-        <v>0.2605189619664827</v>
+        <v>1.316256821653832</v>
       </c>
       <c r="G9">
-        <v>1.188863097470418</v>
+        <v>1.585760319529169</v>
       </c>
       <c r="H9">
-        <v>1.188863097470418</v>
+        <v>1.585760319529169</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -9399,25 +9321,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.481617014445214</v>
+        <v>1.963592844913527</v>
       </c>
       <c r="D10">
-        <v>0.1892058721029747</v>
+        <v>0.2334927391367834</v>
       </c>
       <c r="E10">
-        <v>93</v>
+        <v>1726</v>
       </c>
       <c r="F10">
-        <v>1.068200304705794</v>
+        <v>1.907350148868074</v>
       </c>
       <c r="G10">
-        <v>1.481617014445214</v>
+        <v>1.963592844913527</v>
       </c>
       <c r="H10">
-        <v>1.481617014445214</v>
+        <v>1.963592844913527</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -9426,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -9437,25 +9359,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.727085194721025</v>
+        <v>2.404717566711479</v>
       </c>
       <c r="D11">
-        <v>0.2177345747923798</v>
+        <v>0.2862635075375411</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>1158</v>
       </c>
       <c r="F11">
-        <v>1.676180947571584</v>
+        <v>2.433986217499176</v>
       </c>
       <c r="G11">
-        <v>1.727085194721025</v>
+        <v>2.404717566711479</v>
       </c>
       <c r="H11">
-        <v>1.727085194721025</v>
+        <v>2.404717566711479</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -9475,31 +9397,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.02784849588527</v>
+        <v>2.838545684239336</v>
       </c>
       <c r="D12">
-        <v>0.2222711514097613</v>
+        <v>0.3255097489288231</v>
       </c>
       <c r="E12">
-        <v>53</v>
+        <v>654</v>
       </c>
       <c r="F12">
-        <v>2.137594818422642</v>
+        <v>2.914850567971015</v>
       </c>
       <c r="G12">
-        <v>2.02784849588527</v>
+        <v>2.914850567971015</v>
       </c>
       <c r="H12">
-        <v>2.02784849588527</v>
+        <v>2.914850567971015</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9513,31 +9435,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.550163793759138</v>
+        <v>3.339399192389811</v>
       </c>
       <c r="D13">
-        <v>0.2750768874225583</v>
+        <v>0.3918206245937041</v>
       </c>
       <c r="E13">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="F13">
-        <v>2.505575845117775</v>
+        <v>3.368628740707463</v>
       </c>
       <c r="G13">
-        <v>2.550163793759138</v>
+        <v>3.368628740707463</v>
       </c>
       <c r="H13">
-        <v>2.550163793759138</v>
+        <v>3.368628740707463</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9551,31 +9473,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>2.776977038948735</v>
+        <v>3.788783304425675</v>
       </c>
       <c r="D14">
-        <v>0.3409533796147313</v>
+        <v>0.4240377934604673</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="F14">
-        <v>2.833257955515791</v>
+        <v>3.814006276132387</v>
       </c>
       <c r="G14">
-        <v>2.776977038948735</v>
+        <v>3.814006276132387</v>
       </c>
       <c r="H14">
-        <v>2.776977038948735</v>
+        <v>3.814006276132387</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9589,25 +9511,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.366297057174672</v>
+        <v>4.288701473880989</v>
       </c>
       <c r="D15">
-        <v>0.3882864432874477</v>
+        <v>0.5695804565157663</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F15">
-        <v>3.173775077475483</v>
+        <v>4.26966871466966</v>
       </c>
       <c r="G15">
-        <v>3.173775077475483</v>
+        <v>4.26966871466966</v>
       </c>
       <c r="H15">
-        <v>3.173775077475483</v>
+        <v>4.26966871466966</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -9627,25 +9549,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>3.471706860137715</v>
+        <v>5.100320148223541</v>
       </c>
       <c r="D16">
-        <v>0.4165440740423932</v>
+        <v>0.6530115781599416</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>3.580261138855647</v>
+        <v>4.754301596743165</v>
       </c>
       <c r="G16">
-        <v>3.580261138855647</v>
+        <v>4.754301596743165</v>
       </c>
       <c r="H16">
-        <v>3.580261138855647</v>
+        <v>4.754301596743165</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -9665,25 +9587,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>4.049724813833377</v>
+        <v>5.222198916548468</v>
       </c>
       <c r="D17">
-        <v>0.2494746480105744</v>
+        <v>0.5576440158380613</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>4.105850067515085</v>
+        <v>5.286590462776756</v>
       </c>
       <c r="G17">
-        <v>4.105850067515085</v>
+        <v>5.286590462776756</v>
       </c>
       <c r="H17">
-        <v>4.105850067515085</v>
+        <v>5.286590462776756</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -9703,25 +9625,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>4.846368387256586</v>
+        <v>5.463408530395655</v>
       </c>
       <c r="D18">
-        <v>0.01334999999999997</v>
+        <v>0.5573999999999999</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>4.803675791312571</v>
+        <v>5.885220853194319</v>
       </c>
       <c r="G18">
-        <v>4.803675791312571</v>
+        <v>5.885220853194319</v>
       </c>
       <c r="H18">
-        <v>4.803675791312571</v>
+        <v>5.885220853194319</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -9741,28 +9663,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
+      </c>
+      <c r="C19">
+        <v>6.793814225161003</v>
+      </c>
+      <c r="D19">
+        <v>0.7613413725786876</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>5.726872238106957</v>
+        <v>6.568878308419727</v>
       </c>
       <c r="G19">
-        <v>5.726872238106957</v>
+        <v>6.568878308419727</v>
+      </c>
+      <c r="H19">
+        <v>6.568878308419727</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -9770,19 +9701,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>7.5671</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>6.928573335756994</v>
+        <v>7.356248368876841</v>
       </c>
       <c r="G20">
-        <v>6.928573335756994</v>
+        <v>7.356248368876841</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9799,16 +9736,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8.461913012121499</v>
+        <v>8.266016574989543</v>
       </c>
       <c r="G21">
-        <v>8.461913012121499</v>
+        <v>8.266016574989543</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -9876,25 +9813,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7973142891669049</v>
+        <v>0.965327055222495</v>
       </c>
       <c r="C2">
-        <v>0.000234422912500037</v>
+        <v>0.02249012603753441</v>
       </c>
       <c r="D2">
-        <v>0.0001340465058580416</v>
+        <v>0.01796543107626187</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="F2">
-        <v>10.81906706395725</v>
+        <v>10.36236556473658</v>
       </c>
       <c r="G2">
-        <v>0.000234422912500037</v>
+        <v>0.02249012603753441</v>
       </c>
       <c r="H2">
-        <v>0.000234422912500037</v>
+        <v>0.02249012603753441</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -9914,25 +9851,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391942867500715</v>
+        <v>2.895981165667485</v>
       </c>
       <c r="C3">
-        <v>0.07251354772929874</v>
+        <v>0.1055805102781958</v>
       </c>
       <c r="D3">
-        <v>0.04725559325701103</v>
+        <v>0.0642658761980501</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>1982</v>
       </c>
       <c r="F3">
-        <v>8.179229174582854</v>
+        <v>7.886247750738688</v>
       </c>
       <c r="G3">
-        <v>0.07251354772929874</v>
+        <v>0.1055805102781958</v>
       </c>
       <c r="H3">
-        <v>0.07251354772929874</v>
+        <v>0.1055805102781958</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9952,25 +9889,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.986571445834525</v>
+        <v>4.826635276112475</v>
       </c>
       <c r="C4">
-        <v>0.1936585162946275</v>
+        <v>0.2546674598815996</v>
       </c>
       <c r="D4">
-        <v>0.07993081035464335</v>
+        <v>0.09102812776029119</v>
       </c>
       <c r="E4">
-        <v>188</v>
+        <v>3761</v>
       </c>
       <c r="F4">
-        <v>6.067247255426381</v>
+        <v>5.923643482992317</v>
       </c>
       <c r="G4">
-        <v>0.1936585162946275</v>
+        <v>0.2546674598815996</v>
       </c>
       <c r="H4">
-        <v>0.1936585162946275</v>
+        <v>0.2546674598815996</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9990,25 +9927,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.581200024168335</v>
+        <v>6.757289386557465</v>
       </c>
       <c r="C5">
-        <v>0.3240999179010768</v>
+        <v>0.4348937199383753</v>
       </c>
       <c r="D5">
-        <v>0.08518843200194864</v>
+        <v>0.1020043479697595</v>
       </c>
       <c r="E5">
-        <v>229</v>
+        <v>5164</v>
       </c>
       <c r="F5">
-        <v>4.434471654373253</v>
+        <v>4.429274624053341</v>
       </c>
       <c r="G5">
-        <v>0.3240999179010768</v>
+        <v>0.4348937199383753</v>
       </c>
       <c r="H5">
-        <v>0.3240999179010768</v>
+        <v>0.4348937199383753</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -10028,25 +9965,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.175828602502144</v>
+        <v>8.687943497002454</v>
       </c>
       <c r="C6">
-        <v>0.4850132014883234</v>
+        <v>0.7145706051071448</v>
       </c>
       <c r="D6">
-        <v>0.1103218711599633</v>
+        <v>0.1345809046825457</v>
       </c>
       <c r="E6">
-        <v>234</v>
+        <v>6405</v>
       </c>
       <c r="F6">
-        <v>3.232252719308898</v>
+        <v>3.357863036477628</v>
       </c>
       <c r="G6">
-        <v>0.4850132014883234</v>
+        <v>0.7145706051071448</v>
       </c>
       <c r="H6">
-        <v>0.4850132014883234</v>
+        <v>0.7145706051071448</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -10066,25 +10003,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.770457180835955</v>
+        <v>10.61859760744744</v>
       </c>
       <c r="C7">
-        <v>0.7251872203299428</v>
+        <v>1.019936507698702</v>
       </c>
       <c r="D7">
-        <v>0.1245530579525442</v>
+        <v>0.1683099912461096</v>
       </c>
       <c r="E7">
-        <v>351</v>
+        <v>6703</v>
       </c>
       <c r="F7">
-        <v>2.411940798118744</v>
+        <v>2.66413058282105</v>
       </c>
       <c r="G7">
-        <v>0.7251872203299428</v>
+        <v>1.019936507698702</v>
       </c>
       <c r="H7">
-        <v>0.7251872203299428</v>
+        <v>1.019936507698702</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -10104,25 +10041,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.36508575916977</v>
+        <v>12.54925171789244</v>
       </c>
       <c r="C8">
-        <v>0.9574949412193013</v>
+        <v>1.391442565721633</v>
       </c>
       <c r="D8">
-        <v>0.1826207661451002</v>
+        <v>0.2213017965432588</v>
       </c>
       <c r="E8">
-        <v>253</v>
+        <v>5656</v>
       </c>
       <c r="F8">
-        <v>1.924886238688215</v>
+        <v>2.302799125639476</v>
       </c>
       <c r="G8">
-        <v>0.9574949412193013</v>
+        <v>1.391442565721633</v>
       </c>
       <c r="H8">
-        <v>0.9574949412193013</v>
+        <v>1.391442565721633</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -10142,25 +10079,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95971433750357</v>
+        <v>14.47990582833742</v>
       </c>
       <c r="C9">
-        <v>1.274808435383098</v>
+        <v>1.829927838396125</v>
       </c>
       <c r="D9">
-        <v>0.198436919816921</v>
+        <v>0.301534833439283</v>
       </c>
       <c r="E9">
-        <v>205</v>
+        <v>4507</v>
       </c>
       <c r="F9">
-        <v>1.722439388902737</v>
+        <v>2.228590527488787</v>
       </c>
       <c r="G9">
-        <v>1.274808435383098</v>
+        <v>1.829927838396125</v>
       </c>
       <c r="H9">
-        <v>1.274808435383098</v>
+        <v>1.829927838396125</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -10180,25 +10117,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55434291583738</v>
+        <v>16.41055993878241</v>
       </c>
       <c r="C10">
-        <v>1.621906507009511</v>
+        <v>2.310337952672938</v>
       </c>
       <c r="D10">
-        <v>0.2639973276334235</v>
+        <v>0.3535950364468039</v>
       </c>
       <c r="E10">
-        <v>193</v>
+        <v>3465</v>
       </c>
       <c r="F10">
-        <v>1.755950596647743</v>
+        <v>2.396226650924836</v>
       </c>
       <c r="G10">
-        <v>1.621906507009511</v>
+        <v>2.310337952672938</v>
       </c>
       <c r="H10">
-        <v>1.621906507009511</v>
+        <v>2.310337952672938</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -10207,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -10218,25 +10155,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.14897149417119</v>
+        <v>18.3412140492274</v>
       </c>
       <c r="C11">
-        <v>1.960812523133181</v>
+        <v>2.81576794407022</v>
       </c>
       <c r="D11">
-        <v>0.2677486595179592</v>
+        <v>0.4247448945432476</v>
       </c>
       <c r="E11">
-        <v>137</v>
+        <v>2562</v>
       </c>
       <c r="F11">
-        <v>1.976770209808656</v>
+        <v>2.760429358503501</v>
       </c>
       <c r="G11">
-        <v>1.960812523133181</v>
+        <v>2.81576794407022</v>
       </c>
       <c r="H11">
-        <v>1.960812523133181</v>
+        <v>2.81576794407022</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -10256,25 +10193,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.743600072505</v>
+        <v>20.27186815967239</v>
       </c>
       <c r="C12">
-        <v>2.359032458973047</v>
+        <v>3.393034327515605</v>
       </c>
       <c r="D12">
-        <v>0.4279635885790161</v>
+        <v>0.476154251783509</v>
       </c>
       <c r="E12">
-        <v>95</v>
+        <v>1656</v>
       </c>
       <c r="F12">
-        <v>2.336248576270915</v>
+        <v>3.275920512780662</v>
       </c>
       <c r="G12">
-        <v>2.359032458973047</v>
+        <v>3.393034327515605</v>
       </c>
       <c r="H12">
-        <v>2.359032458973047</v>
+        <v>3.393034327515605</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -10294,31 +10231,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33822865083881</v>
+        <v>22.20252227011738</v>
       </c>
       <c r="C13">
-        <v>2.767305324998437</v>
+        <v>3.940115531498272</v>
       </c>
       <c r="D13">
-        <v>0.473354247571279</v>
+        <v>0.5255704405233502</v>
       </c>
       <c r="E13">
-        <v>68</v>
+        <v>946</v>
       </c>
       <c r="F13">
-        <v>2.785736043919933</v>
+        <v>3.897421976312174</v>
       </c>
       <c r="G13">
-        <v>2.767305324998437</v>
+        <v>3.897421976312174</v>
       </c>
       <c r="H13">
-        <v>2.767305324998437</v>
+        <v>3.897421976312174</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10332,31 +10269,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93285722917263</v>
+        <v>24.13317638056238</v>
       </c>
       <c r="C14">
-        <v>3.381662841403772</v>
+        <v>4.56807518497462</v>
       </c>
       <c r="D14">
-        <v>0.5143194096933121</v>
+        <v>0.5714794579479064</v>
       </c>
       <c r="E14">
-        <v>58</v>
+        <v>482</v>
       </c>
       <c r="F14">
-        <v>3.276582960641129</v>
+        <v>4.579655611653919</v>
       </c>
       <c r="G14">
-        <v>3.381662841403772</v>
+        <v>4.579655611653919</v>
       </c>
       <c r="H14">
-        <v>3.381662841403772</v>
+        <v>4.579655611653919</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10370,25 +10307,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52748580750643</v>
+        <v>26.06383049100737</v>
       </c>
       <c r="C15">
-        <v>3.621397263438914</v>
+        <v>5.071604822738202</v>
       </c>
       <c r="D15">
-        <v>0.5441957956635252</v>
+        <v>0.7264931187214775</v>
       </c>
       <c r="E15">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="F15">
-        <v>3.760139674319952</v>
+        <v>5.277343281361766</v>
       </c>
       <c r="G15">
-        <v>3.760139674319952</v>
+        <v>5.277343281361766</v>
       </c>
       <c r="H15">
-        <v>3.760139674319952</v>
+        <v>5.277343281361766</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -10408,25 +10345,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.12211438584024</v>
+        <v>27.99448460145235</v>
       </c>
       <c r="C16">
-        <v>4.156736305856864</v>
+        <v>5.956490050289005</v>
       </c>
       <c r="D16">
-        <v>0.4706981160240303</v>
+        <v>0.7383943045175698</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F16">
-        <v>4.18775653284181</v>
+        <v>5.945206847991571</v>
       </c>
       <c r="G16">
-        <v>4.18775653284181</v>
+        <v>5.945206847991571</v>
       </c>
       <c r="H16">
-        <v>4.18775653284181</v>
+        <v>5.945206847991571</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -10446,25 +10383,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71674296417405</v>
+        <v>29.92513871189734</v>
       </c>
       <c r="C17">
-        <v>4.630314696348642</v>
+        <v>6.387383031041594</v>
       </c>
       <c r="D17">
-        <v>0.4066007648863599</v>
+        <v>0.9198310427030506</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>4.510783884092142</v>
+        <v>6.537968174099227</v>
       </c>
       <c r="G17">
-        <v>4.510783884092142</v>
+        <v>6.537968174099227</v>
       </c>
       <c r="H17">
-        <v>4.510783884092142</v>
+        <v>6.537968174099227</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -10484,25 +10421,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.31137154250786</v>
+        <v>31.85579282234233</v>
       </c>
       <c r="C18">
-        <v>4.6429</v>
+        <v>7.322547193624438</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.8123905110530153</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>4.680572075956384</v>
+        <v>7.010349122240598</v>
       </c>
       <c r="G18">
-        <v>4.680572075956384</v>
+        <v>7.010349122240598</v>
       </c>
       <c r="H18">
-        <v>4.680572075956384</v>
+        <v>7.010349122240598</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -10522,25 +10459,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.90600012084168</v>
+        <v>33.78644693278732</v>
       </c>
       <c r="C19">
-        <v>4.6429</v>
+        <v>7.322547193624438</v>
       </c>
       <c r="D19">
-        <v>0.4525000000000002</v>
+        <v>0.9465712239661718</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>4.648471456319946</v>
+        <v>7.317071554971541</v>
       </c>
       <c r="G19">
-        <v>4.648471456319946</v>
+        <v>7.317071554971541</v>
       </c>
       <c r="H19">
-        <v>4.648471456319946</v>
+        <v>7.317071554971541</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -10560,28 +10497,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.50062869917548</v>
+        <v>35.71710104323231</v>
+      </c>
+      <c r="C20">
+        <v>7.322547193624438</v>
+      </c>
+      <c r="D20">
+        <v>1.8337</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>4.365832373068258</v>
+        <v>7.412857334847949</v>
       </c>
       <c r="G20">
-        <v>4.365832373068258</v>
+        <v>7.412857334847949</v>
+      </c>
+      <c r="H20">
+        <v>7.412857334847949</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -10589,16 +10535,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09525727750929</v>
+        <v>37.6477551536773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.784005174086758</v>
+        <v>7.252428324425672</v>
       </c>
       <c r="G21">
-        <v>3.784005174086758</v>
+        <v>7.252428324425672</v>
       </c>
       <c r="I21">
         <v>0</v>
